--- a/Output/Y2021/Different Name (file120-Bank).xlsx
+++ b/Output/Y2021/Different Name (file120-Bank).xlsx
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="C8" s="0">
-        <v>163678602</v>
+        <v>161004102</v>
       </c>
       <c r="D8" s="0">
-        <v>8183931</v>
+        <v>8050205</v>
       </c>
       <c r="E8" s="0">
-        <v>155494671</v>
+        <v>152953897</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -613,45 +613,45 @@
         </is>
       </c>
       <c r="G8" s="0">
-        <v>155494671</v>
+        <v>152953897</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2009473</t>
+          <t>2009436</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DINH TIEN THANH &amp; HOANG THI THUY HANG</t>
+          <t>DONG TUAN DAT</t>
         </is>
       </c>
       <c r="C9" s="0">
-        <v>68888149</v>
+        <v>163678602</v>
       </c>
       <c r="D9" s="0">
-        <v>7467992</v>
+        <v>8183931</v>
       </c>
       <c r="E9" s="0">
-        <v>61420157</v>
+        <v>155494671</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DINH TIEN THANH</t>
+          <t>DONG  TUAN  DAT</t>
         </is>
       </c>
       <c r="G9" s="0">
-        <v>61420157</v>
+        <v>155494671</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="C10" s="0">
-        <v>72587377</v>
+        <v>68888149</v>
       </c>
       <c r="D10" s="0">
-        <v>3629369</v>
+        <v>7467992</v>
       </c>
       <c r="E10" s="0">
-        <v>68958008</v>
+        <v>61420157</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -681,45 +681,45 @@
         </is>
       </c>
       <c r="G10" s="0">
-        <v>68958008</v>
+        <v>61420157</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2009500</t>
+          <t>2009473</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LUU TU TAM &amp; LAM TAN KHANH</t>
+          <t>DINH TIEN THANH &amp; HOANG THI THUY HANG</t>
         </is>
       </c>
       <c r="C11" s="0">
-        <v>68695123</v>
+        <v>72587377</v>
       </c>
       <c r="D11" s="0">
-        <v>6462036</v>
+        <v>3629369</v>
       </c>
       <c r="E11" s="0">
-        <v>62233087</v>
+        <v>68958008</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>LUU TU TAM</t>
+          <t>DINH TIEN THANH</t>
         </is>
       </c>
       <c r="G11" s="0">
-        <v>62233087</v>
+        <v>68958008</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="C12" s="0">
-        <v>72043109</v>
+        <v>68695123</v>
       </c>
       <c r="D12" s="0">
-        <v>3602155</v>
+        <v>6462036</v>
       </c>
       <c r="E12" s="0">
-        <v>68440954</v>
+        <v>62233087</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -749,45 +749,45 @@
         </is>
       </c>
       <c r="G12" s="0">
-        <v>68440954</v>
+        <v>62233087</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2009526</t>
+          <t>2009500</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HUYNH HUE HOA &amp; LUU CHI HUNG</t>
+          <t>LUU TU TAM &amp; LAM TAN KHANH</t>
         </is>
       </c>
       <c r="C13" s="0">
-        <v>50642636</v>
+        <v>72043109</v>
       </c>
       <c r="D13" s="0">
-        <v>5096767</v>
+        <v>3602155</v>
       </c>
       <c r="E13" s="0">
-        <v>45545869</v>
+        <v>68440954</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>HUYNH HUE HOA</t>
+          <t>LUU TU TAM</t>
         </is>
       </c>
       <c r="G13" s="0">
-        <v>45545869</v>
+        <v>68440954</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
@@ -803,55 +803,55 @@
         </is>
       </c>
       <c r="C14" s="0">
-        <v>41180416</v>
+        <v>50642636</v>
       </c>
       <c r="D14" s="0">
-        <v>2059020</v>
+        <v>5096767</v>
       </c>
       <c r="E14" s="0">
-        <v>39121396</v>
+        <v>45545869</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>LUU CHI HUNG</t>
+          <t>HUYNH HUE HOA</t>
         </is>
       </c>
       <c r="G14" s="0">
-        <v>39121396</v>
+        <v>45545869</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2009530</t>
+          <t>2009526</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NGO BINH TAN &amp; HUYNH LIEU LINH</t>
+          <t>HUYNH HUE HOA &amp; LUU CHI HUNG</t>
         </is>
       </c>
       <c r="C15" s="0">
-        <v>49739475</v>
+        <v>41180416</v>
       </c>
       <c r="D15" s="0">
-        <v>5737035</v>
+        <v>2059020</v>
       </c>
       <c r="E15" s="0">
-        <v>44002440</v>
+        <v>39121396</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NGO BINH TAN</t>
+          <t>LUU CHI HUNG</t>
         </is>
       </c>
       <c r="G15" s="0">
-        <v>44002440</v>
+        <v>39121396</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -862,34 +862,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2010443</t>
+          <t>2009530</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHAM CHI BINH &amp; NGUYEN THI TUYET NGAN</t>
+          <t>NGO BINH TAN &amp; HUYNH LIEU LINH</t>
         </is>
       </c>
       <c r="C16" s="0">
-        <v>109189924</v>
+        <v>49739475</v>
       </c>
       <c r="D16" s="0">
-        <v>10287175</v>
+        <v>5737035</v>
       </c>
       <c r="E16" s="0">
-        <v>98902749</v>
+        <v>44002440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>PHAM CHI BINH</t>
+          <t>NGO BINH TAN</t>
         </is>
       </c>
       <c r="G16" s="0">
-        <v>98902749</v>
+        <v>44002440</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
@@ -905,13 +905,13 @@
         </is>
       </c>
       <c r="C17" s="0">
-        <v>87937652</v>
+        <v>109189924</v>
       </c>
       <c r="D17" s="0">
-        <v>4396883</v>
+        <v>10287175</v>
       </c>
       <c r="E17" s="0">
-        <v>83540769</v>
+        <v>98902749</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -919,41 +919,41 @@
         </is>
       </c>
       <c r="G17" s="0">
-        <v>83540769</v>
+        <v>98902749</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2010479</t>
+          <t>2010443</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHAM QUANG HUNG &amp; HA THI THANH THUY</t>
+          <t>PHAM CHI BINH &amp; NGUYEN THI TUYET NGAN</t>
         </is>
       </c>
       <c r="C18" s="0">
-        <v>54128026</v>
+        <v>87937652</v>
       </c>
       <c r="D18" s="0">
-        <v>7294427</v>
+        <v>4396883</v>
       </c>
       <c r="E18" s="0">
-        <v>46833599</v>
+        <v>83540769</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PHAM QUANG HUNG</t>
+          <t>PHAM CHI BINH</t>
         </is>
       </c>
       <c r="G18" s="0">
-        <v>46833599</v>
+        <v>83540769</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -964,30 +964,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2014200</t>
+          <t>2010479</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DAM THI HOAT &amp; PHAM LAM</t>
+          <t>PHAM QUANG HUNG &amp; HA THI THANH THUY</t>
         </is>
       </c>
       <c r="C19" s="0">
-        <v>33290759</v>
+        <v>54128026</v>
       </c>
       <c r="D19" s="0">
-        <v>5409020</v>
+        <v>7294427</v>
       </c>
       <c r="E19" s="0">
-        <v>27881739</v>
+        <v>46833599</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DAM THI HOAT</t>
+          <t>PHAM QUANG HUNG</t>
         </is>
       </c>
       <c r="G19" s="0">
-        <v>27881739</v>
+        <v>46833599</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -998,34 +998,34 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2014400</t>
+          <t>2014200</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NGUYEN THI THANH HUONG &amp; PHAM NGOC VAN</t>
+          <t>DAM THI HOAT &amp; PHAM LAM</t>
         </is>
       </c>
       <c r="C20" s="0">
-        <v>51082533</v>
+        <v>33290759</v>
       </c>
       <c r="D20" s="0">
-        <v>5283753</v>
+        <v>5409020</v>
       </c>
       <c r="E20" s="0">
-        <v>45798780</v>
+        <v>27881739</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NGUYEN THI THANH HUONG</t>
+          <t>DAM THI HOAT</t>
         </is>
       </c>
       <c r="G20" s="0">
-        <v>45798780</v>
+        <v>27881739</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
@@ -1041,13 +1041,13 @@
         </is>
       </c>
       <c r="C21" s="0">
-        <v>48701064</v>
+        <v>51082533</v>
       </c>
       <c r="D21" s="0">
-        <v>2435053</v>
+        <v>5283753</v>
       </c>
       <c r="E21" s="0">
-        <v>46266011</v>
+        <v>45798780</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1055,45 +1055,45 @@
         </is>
       </c>
       <c r="G21" s="0">
-        <v>46266011</v>
+        <v>45798780</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2014623</t>
+          <t>2014400</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LE QUANG HUY &amp; TRAN THU HUONG</t>
+          <t>NGUYEN THI THANH HUONG &amp; PHAM NGOC VAN</t>
         </is>
       </c>
       <c r="C22" s="0">
-        <v>52753542</v>
+        <v>48701064</v>
       </c>
       <c r="D22" s="0">
-        <v>5087692</v>
+        <v>2435053</v>
       </c>
       <c r="E22" s="0">
-        <v>47665850</v>
+        <v>46266011</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>LE QUANG HUY</t>
+          <t>NGUYEN THI THANH HUONG</t>
         </is>
       </c>
       <c r="G22" s="0">
-        <v>47665850</v>
+        <v>46266011</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="C23" s="0">
-        <v>50003334</v>
+        <v>52753542</v>
       </c>
       <c r="D23" s="0">
-        <v>2500167</v>
+        <v>5087692</v>
       </c>
       <c r="E23" s="0">
-        <v>47503167</v>
+        <v>47665850</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1123,45 +1123,45 @@
         </is>
       </c>
       <c r="G23" s="0">
-        <v>47503167</v>
+        <v>47665850</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2014629</t>
+          <t>2014623</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRAN THI HANH &amp; NGUYEN NGOC LINH</t>
+          <t>LE QUANG HUY &amp; TRAN THU HUONG</t>
         </is>
       </c>
       <c r="C24" s="0">
-        <v>64771485</v>
+        <v>50003334</v>
       </c>
       <c r="D24" s="0">
-        <v>5629268</v>
+        <v>2500167</v>
       </c>
       <c r="E24" s="0">
-        <v>59142217</v>
+        <v>47503167</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>TRAN THI HANH</t>
+          <t>LE QUANG HUY</t>
         </is>
       </c>
       <c r="G24" s="0">
-        <v>59142217</v>
+        <v>47503167</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
@@ -1177,13 +1177,13 @@
         </is>
       </c>
       <c r="C25" s="0">
-        <v>49857918</v>
+        <v>64771485</v>
       </c>
       <c r="D25" s="0">
-        <v>2492896</v>
+        <v>5629268</v>
       </c>
       <c r="E25" s="0">
-        <v>47365022</v>
+        <v>59142217</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1191,41 +1191,41 @@
         </is>
       </c>
       <c r="G25" s="0">
-        <v>47365022</v>
+        <v>59142217</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2014640</t>
+          <t>2014629</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRAN THI THU HUONG &amp; PHAN THANH XUAN</t>
+          <t>TRAN THI HANH &amp; NGUYEN NGOC LINH</t>
         </is>
       </c>
       <c r="C26" s="0">
-        <v>33747430</v>
+        <v>49857918</v>
       </c>
       <c r="D26" s="0">
-        <v>6166385</v>
+        <v>2492896</v>
       </c>
       <c r="E26" s="0">
-        <v>27581045</v>
+        <v>47365022</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>TRAN THI THU HUONG</t>
+          <t>TRAN THI HANH</t>
         </is>
       </c>
       <c r="G26" s="0">
-        <v>27581045</v>
+        <v>47365022</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1236,30 +1236,30 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2014997</t>
+          <t>2014640</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PHAM THI PHUONG HOA &amp; NGUYEN THE DUC</t>
+          <t>TRAN THI THU HUONG &amp; PHAN THANH XUAN</t>
         </is>
       </c>
       <c r="C27" s="0">
-        <v>33904923</v>
+        <v>33747430</v>
       </c>
       <c r="D27" s="0">
-        <v>5093774</v>
+        <v>6166385</v>
       </c>
       <c r="E27" s="0">
-        <v>28811149</v>
+        <v>27581045</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PHAM THI PHUONG HOA</t>
+          <t>TRAN THI THU HUONG</t>
         </is>
       </c>
       <c r="G27" s="0">
-        <v>28811149</v>
+        <v>27581045</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1270,34 +1270,34 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2019937</t>
+          <t>2014997</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NGUYEN TRAN THIEN THANH &amp; NGUYEN THI XUAN PHUONG</t>
+          <t>PHAM THI PHUONG HOA &amp; NGUYEN THE DUC</t>
         </is>
       </c>
       <c r="C28" s="0">
-        <v>82261110</v>
+        <v>33904923</v>
       </c>
       <c r="D28" s="0">
-        <v>4113056</v>
+        <v>5093774</v>
       </c>
       <c r="E28" s="0">
-        <v>78148054</v>
+        <v>28811149</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NGUYEN TRAN THIEN THANH</t>
+          <t>PHAM THI PHUONG HOA</t>
         </is>
       </c>
       <c r="G28" s="0">
-        <v>78148054</v>
+        <v>28811149</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
@@ -1313,13 +1313,13 @@
         </is>
       </c>
       <c r="C29" s="0">
-        <v>77451425</v>
+        <v>82261110</v>
       </c>
       <c r="D29" s="0">
-        <v>3872571</v>
+        <v>4113056</v>
       </c>
       <c r="E29" s="0">
-        <v>73578854</v>
+        <v>78148054</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1327,75 +1327,75 @@
         </is>
       </c>
       <c r="G29" s="0">
-        <v>73578854</v>
+        <v>78148054</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021160</t>
+          <t>2019937</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DUONG THI THU &amp; NGUYEN NGOC HIEU</t>
+          <t>NGUYEN TRAN THIEN THANH &amp; NGUYEN THI XUAN PHUONG</t>
         </is>
       </c>
       <c r="C30" s="0">
-        <v>96228540</v>
+        <v>100502560</v>
       </c>
       <c r="D30" s="0">
-        <v>8941557</v>
+        <v>5025128</v>
       </c>
       <c r="E30" s="0">
-        <v>87286983</v>
+        <v>95477432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DUONG THI THU</t>
+          <t>NGUYEN TRAN THIEN THANH</t>
         </is>
       </c>
       <c r="G30" s="0">
-        <v>87286983</v>
+        <v>95477432</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021160</t>
+          <t>2019937</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DUONG THI THU &amp; NGUYEN NGOC HIEU</t>
+          <t>NGUYEN TRAN THIEN THANH &amp; NGUYEN THI XUAN PHUONG</t>
         </is>
       </c>
       <c r="C31" s="0">
-        <v>84276605</v>
+        <v>77451425</v>
       </c>
       <c r="D31" s="0">
-        <v>4213830</v>
+        <v>3872571</v>
       </c>
       <c r="E31" s="0">
-        <v>80062775</v>
+        <v>73578854</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DUONG THI THU</t>
+          <t>NGUYEN TRAN THIEN THANH</t>
         </is>
       </c>
       <c r="G31" s="0">
-        <v>80062775</v>
+        <v>73578854</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1406,30 +1406,30 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021296</t>
+          <t>2021160</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRAN PHAM BINH &amp; NGUYEN THI VIET NGA</t>
+          <t>DUONG THI THU &amp; NGUYEN NGOC HIEU</t>
         </is>
       </c>
       <c r="C32" s="0">
-        <v>161815284</v>
+        <v>96228540</v>
       </c>
       <c r="D32" s="0">
-        <v>8090764</v>
+        <v>8941557</v>
       </c>
       <c r="E32" s="0">
-        <v>153724520</v>
+        <v>87286983</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NGUYEN THI VIET NGA</t>
+          <t>DUONG THI THU</t>
         </is>
       </c>
       <c r="G32" s="0">
-        <v>153724520</v>
+        <v>87286983</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1440,30 +1440,30 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021296</t>
+          <t>2021160</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRAN PHAM BINH &amp; NGUYEN THI VIET NGA</t>
+          <t>DUONG THI THU &amp; NGUYEN NGOC HIEU</t>
         </is>
       </c>
       <c r="C33" s="0">
-        <v>130602980</v>
+        <v>84276605</v>
       </c>
       <c r="D33" s="0">
-        <v>6530149</v>
+        <v>4213830</v>
       </c>
       <c r="E33" s="0">
-        <v>124072831</v>
+        <v>80062775</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NGUYEN THI VIET NGA</t>
+          <t>DUONG THI THU</t>
         </is>
       </c>
       <c r="G33" s="0">
-        <v>124072831</v>
+        <v>80062775</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1474,30 +1474,30 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2022468</t>
+          <t>2021296</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRAN QUOC DUNG &amp; LE THI THUY DUONG</t>
+          <t>TRAN PHAM BINH &amp; NGUYEN THI VIET NGA</t>
         </is>
       </c>
       <c r="C34" s="0">
-        <v>90333505</v>
+        <v>161815284</v>
       </c>
       <c r="D34" s="0">
-        <v>8979308</v>
+        <v>8090764</v>
       </c>
       <c r="E34" s="0">
-        <v>81354197</v>
+        <v>153724520</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>LE THI THUY DUONG</t>
+          <t>NGUYEN THI VIET NGA</t>
         </is>
       </c>
       <c r="G34" s="0">
-        <v>81354197</v>
+        <v>153724520</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1508,64 +1508,64 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2022468</t>
+          <t>2021296</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRAN QUOC DUNG &amp; LE THI THUY DUONG</t>
+          <t>TRAN PHAM BINH &amp; NGUYEN THI VIET NGA</t>
         </is>
       </c>
       <c r="C35" s="0">
-        <v>99534558</v>
+        <v>143300114</v>
       </c>
       <c r="D35" s="0">
-        <v>4976728</v>
+        <v>7165006</v>
       </c>
       <c r="E35" s="0">
-        <v>94557830</v>
+        <v>136135108</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>LE THI THUY DUONG</t>
+          <t>NGUYEN THI VIET NGA</t>
         </is>
       </c>
       <c r="G35" s="0">
-        <v>94557830</v>
+        <v>136135108</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026241</t>
+          <t>2021296</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PHAM DUY MANH &amp; VU THI KIEU TRINH</t>
+          <t>TRAN PHAM BINH &amp; NGUYEN THI VIET NGA</t>
         </is>
       </c>
       <c r="C36" s="0">
-        <v>35326253</v>
+        <v>130602980</v>
       </c>
       <c r="D36" s="0">
-        <v>5778261</v>
+        <v>6530149</v>
       </c>
       <c r="E36" s="0">
-        <v>29547992</v>
+        <v>124072831</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PHAM DUY MANH</t>
+          <t>NGUYEN THI VIET NGA</t>
         </is>
       </c>
       <c r="G36" s="0">
-        <v>29547992</v>
+        <v>124072831</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1576,30 +1576,30 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2030053</t>
+          <t>2022468</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NGUYEN HUU TINH &amp; NGUYEN THI BICH TUYEN</t>
+          <t>TRAN QUOC DUNG &amp; LE THI THUY DUONG</t>
         </is>
       </c>
       <c r="C37" s="0">
-        <v>76399165</v>
+        <v>90333505</v>
       </c>
       <c r="D37" s="0">
-        <v>7197904</v>
+        <v>8979308</v>
       </c>
       <c r="E37" s="0">
-        <v>69201261</v>
+        <v>81354197</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NGUYEN HUU TINH</t>
+          <t>LE THI THUY DUONG</t>
         </is>
       </c>
       <c r="G37" s="0">
-        <v>69201261</v>
+        <v>81354197</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1610,30 +1610,30 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2030053</t>
+          <t>2022468</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NGUYEN HUU TINH &amp; NGUYEN THI BICH TUYEN</t>
+          <t>TRAN QUOC DUNG &amp; LE THI THUY DUONG</t>
         </is>
       </c>
       <c r="C38" s="0">
-        <v>57579466</v>
+        <v>99534558</v>
       </c>
       <c r="D38" s="0">
-        <v>2878973</v>
+        <v>4976728</v>
       </c>
       <c r="E38" s="0">
-        <v>54700493</v>
+        <v>94557830</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NGUYEN HUU TINH</t>
+          <t>LE THI THUY DUONG</t>
         </is>
       </c>
       <c r="G38" s="0">
-        <v>54700493</v>
+        <v>94557830</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1644,30 +1644,30 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2037942</t>
+          <t>2026241</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AN MINH TIEN &amp; VU LE THANH</t>
+          <t>PHAM DUY MANH &amp; VU THI KIEU TRINH</t>
         </is>
       </c>
       <c r="C39" s="0">
-        <v>50248525</v>
+        <v>35326253</v>
       </c>
       <c r="D39" s="0">
-        <v>5064188</v>
+        <v>5778261</v>
       </c>
       <c r="E39" s="0">
-        <v>45184337</v>
+        <v>29547992</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>VU LE THANH</t>
+          <t>PHAM DUY MANH</t>
         </is>
       </c>
       <c r="G39" s="0">
-        <v>45184337</v>
+        <v>29547992</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1678,30 +1678,30 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2040244</t>
+          <t>2030053</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PHAM HUNG &amp; HO VU THIEN NGA</t>
+          <t>NGUYEN HUU TINH &amp; NGUYEN THI BICH TUYEN</t>
         </is>
       </c>
       <c r="C40" s="0">
-        <v>74724378</v>
+        <v>76399165</v>
       </c>
       <c r="D40" s="0">
-        <v>6656684</v>
+        <v>7197904</v>
       </c>
       <c r="E40" s="0">
-        <v>68067694</v>
+        <v>69201261</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>HO VU THIEN NGA</t>
+          <t>NGUYEN HUU TINH</t>
         </is>
       </c>
       <c r="G40" s="0">
-        <v>68067694</v>
+        <v>69201261</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1712,30 +1712,30 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2040244</t>
+          <t>2030053</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PHAM HUNG &amp; HO VU THIEN NGA</t>
+          <t>NGUYEN HUU TINH &amp; NGUYEN THI BICH TUYEN</t>
         </is>
       </c>
       <c r="C41" s="0">
-        <v>50430250</v>
+        <v>57579466</v>
       </c>
       <c r="D41" s="0">
-        <v>2521513</v>
+        <v>2878973</v>
       </c>
       <c r="E41" s="0">
-        <v>47908737</v>
+        <v>54700493</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>HO VU THIEN NGA</t>
+          <t>NGUYEN HUU TINH</t>
         </is>
       </c>
       <c r="G41" s="0">
-        <v>47908737</v>
+        <v>54700493</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1746,30 +1746,30 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2041313</t>
+          <t>2037942</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PHAM THI TOI &amp; DANG VAN DUC</t>
+          <t>AN MINH TIEN &amp; VU LE THANH</t>
         </is>
       </c>
       <c r="C42" s="0">
-        <v>52104450</v>
+        <v>50248525</v>
       </c>
       <c r="D42" s="0">
-        <v>6549916</v>
+        <v>5064188</v>
       </c>
       <c r="E42" s="0">
-        <v>45554534</v>
+        <v>45184337</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>PHAM THI TOI</t>
+          <t>VU LE THANH</t>
         </is>
       </c>
       <c r="G42" s="0">
-        <v>45554534</v>
+        <v>45184337</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1780,64 +1780,64 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2046689</t>
+          <t>2040244</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NGO QUOC HUNG &amp; PHAN THI BE</t>
+          <t>PHAM HUNG &amp; HO VU THIEN NGA</t>
         </is>
       </c>
       <c r="C43" s="0">
-        <v>46485790</v>
+        <v>74724378</v>
       </c>
       <c r="D43" s="0">
-        <v>5880123</v>
+        <v>6656684</v>
       </c>
       <c r="E43" s="0">
-        <v>40605667</v>
+        <v>68067694</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NGO QUOC HUNG</t>
+          <t>HO VU THIEN NGA</t>
         </is>
       </c>
       <c r="G43" s="0">
-        <v>40605667</v>
+        <v>68067694</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2049426</t>
+          <t>2040244</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BUI DINH NHAT &amp; VU THI HOA TRANG</t>
+          <t>PHAM HUNG &amp; HO VU THIEN NGA</t>
         </is>
       </c>
       <c r="C44" s="0">
-        <v>48083513</v>
+        <v>50430250</v>
       </c>
       <c r="D44" s="0">
-        <v>6662799</v>
+        <v>2521513</v>
       </c>
       <c r="E44" s="0">
-        <v>41420714</v>
+        <v>47908737</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>BUI DINH NHAT</t>
+          <t>HO VU THIEN NGA</t>
         </is>
       </c>
       <c r="G44" s="0">
-        <v>41420714</v>
+        <v>47908737</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1848,64 +1848,64 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2050672</t>
+          <t>2041313</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LAM HUNG &amp; DIEC LE</t>
+          <t>PHAM THI TOI &amp; DANG VAN DUC</t>
         </is>
       </c>
       <c r="C45" s="0">
-        <v>97613945</v>
+        <v>52104450</v>
       </c>
       <c r="D45" s="0">
-        <v>6938403</v>
+        <v>6549916</v>
       </c>
       <c r="E45" s="0">
-        <v>90675542</v>
+        <v>45554534</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>LAM HUNG</t>
+          <t>PHAM THI TOI</t>
         </is>
       </c>
       <c r="G45" s="0">
-        <v>90675542</v>
+        <v>45554534</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2050672</t>
+          <t>2046689</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LAM HUNG &amp; DIEC LE</t>
+          <t>NGO QUOC HUNG &amp; PHAN THI BE</t>
         </is>
       </c>
       <c r="C46" s="0">
-        <v>100962499</v>
+        <v>46485790</v>
       </c>
       <c r="D46" s="0">
-        <v>5048125</v>
+        <v>5880123</v>
       </c>
       <c r="E46" s="0">
-        <v>95914374</v>
+        <v>40605667</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>LAM HUNG</t>
+          <t>NGO QUOC HUNG</t>
         </is>
       </c>
       <c r="G46" s="0">
-        <v>95914374</v>
+        <v>40605667</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1916,438 +1916,438 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2052337</t>
+          <t>2049426</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LE TRUNG TIN &amp; VO THI LOL</t>
+          <t>BUI DINH NHAT &amp; VU THI HOA TRANG</t>
         </is>
       </c>
       <c r="C47" s="0">
-        <v>147304142</v>
+        <v>48083513</v>
       </c>
       <c r="D47" s="0">
-        <v>7365207</v>
+        <v>6662799</v>
       </c>
       <c r="E47" s="0">
-        <v>139938935</v>
+        <v>41420714</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>LE TRUNG TIN</t>
+          <t>BUI DINH NHAT</t>
         </is>
       </c>
       <c r="G47" s="0">
-        <v>139938935</v>
+        <v>41420714</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2052337</t>
+          <t>2050672</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LE TRUNG TIN &amp; VO THI LOL</t>
+          <t>LAM HUNG &amp; DIEC LE</t>
         </is>
       </c>
       <c r="C48" s="0">
-        <v>150275452</v>
+        <v>97613945</v>
       </c>
       <c r="D48" s="0">
-        <v>7513773</v>
+        <v>6938403</v>
       </c>
       <c r="E48" s="0">
-        <v>142761679</v>
+        <v>90675542</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>LE TRUNG TIN</t>
+          <t>LAM HUNG</t>
         </is>
       </c>
       <c r="G48" s="0">
-        <v>142761679</v>
+        <v>90675542</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2052875</t>
+          <t>2050672</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BUI THI NGOC BANG &amp; KHUC DUY THANG</t>
+          <t>LAM HUNG &amp; DIEC LE</t>
         </is>
       </c>
       <c r="C49" s="0">
-        <v>68542415</v>
+        <v>100962499</v>
       </c>
       <c r="D49" s="0">
-        <v>6152415</v>
+        <v>5048125</v>
       </c>
       <c r="E49" s="0">
-        <v>62390000</v>
+        <v>95914374</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>BUI THI NGOC BANG</t>
+          <t>LAM HUNG</t>
         </is>
       </c>
       <c r="G49" s="0">
-        <v>62390000</v>
+        <v>95914374</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2052875</t>
+          <t>2052337</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BUI THI NGOC BANG &amp; KHUC DUY THANG</t>
+          <t>LE TRUNG TIN &amp; VO THI LOL</t>
         </is>
       </c>
       <c r="C50" s="0">
-        <v>59356365</v>
+        <v>147304142</v>
       </c>
       <c r="D50" s="0">
-        <v>2967818</v>
+        <v>7365207</v>
       </c>
       <c r="E50" s="0">
-        <v>56388547</v>
+        <v>139938935</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>BUI THI NGOC BANG</t>
+          <t>LE TRUNG TIN</t>
         </is>
       </c>
       <c r="G50" s="0">
-        <v>56388547</v>
+        <v>139938935</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2057300</t>
+          <t>2052337</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRAN THI QUYNH LOAN &amp; HA NGOC TUAN</t>
+          <t>LE TRUNG TIN &amp; VO THI LOL</t>
         </is>
       </c>
       <c r="C51" s="0">
-        <v>70301281</v>
+        <v>150275452</v>
       </c>
       <c r="D51" s="0">
-        <v>5737074</v>
+        <v>7513773</v>
       </c>
       <c r="E51" s="0">
-        <v>64564207</v>
+        <v>142761679</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>TRAN THI QUYNH LOAN</t>
+          <t>LE TRUNG TIN</t>
         </is>
       </c>
       <c r="G51" s="0">
-        <v>64564207</v>
+        <v>142761679</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2057300</t>
+          <t>2052875</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRAN THI QUYNH LOAN &amp; HA NGOC TUAN</t>
+          <t>BUI THI NGOC BANG &amp; KHUC DUY THANG</t>
         </is>
       </c>
       <c r="C52" s="0">
-        <v>50676517</v>
+        <v>68542415</v>
       </c>
       <c r="D52" s="0">
-        <v>2533826</v>
+        <v>6152415</v>
       </c>
       <c r="E52" s="0">
-        <v>48142691</v>
+        <v>62390000</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>TRAN THI QUYNH LOAN</t>
+          <t>BUI THI NGOC BANG</t>
         </is>
       </c>
       <c r="G52" s="0">
-        <v>48142691</v>
+        <v>62390000</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2060413</t>
+          <t>2052875</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NGUYEN QUY BINH &amp; DAO NHAT LINH</t>
+          <t>BUI THI NGOC BANG &amp; KHUC DUY THANG</t>
         </is>
       </c>
       <c r="C53" s="0">
-        <v>68227937</v>
+        <v>59356365</v>
       </c>
       <c r="D53" s="0">
-        <v>6258425</v>
+        <v>2967818</v>
       </c>
       <c r="E53" s="0">
-        <v>61969512</v>
+        <v>56388547</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NGUYEN QUY BINH</t>
+          <t>BUI THI NGOC BANG</t>
         </is>
       </c>
       <c r="G53" s="0">
-        <v>61969512</v>
+        <v>56388547</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2060413</t>
+          <t>2057300</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NGUYEN QUY BINH &amp; DAO NHAT LINH</t>
+          <t>TRAN THI QUYNH LOAN &amp; HA NGOC TUAN</t>
         </is>
       </c>
       <c r="C54" s="0">
-        <v>56727064</v>
+        <v>70301281</v>
       </c>
       <c r="D54" s="0">
-        <v>2836354</v>
+        <v>5737074</v>
       </c>
       <c r="E54" s="0">
-        <v>53890710</v>
+        <v>64564207</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>NGUYEN QUY BINH</t>
+          <t>TRAN THI QUYNH LOAN</t>
         </is>
       </c>
       <c r="G54" s="0">
-        <v>53890710</v>
+        <v>64564207</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2071151</t>
+          <t>2057300</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GIANG THI THAM &amp; VO CONG HUNG</t>
+          <t>TRAN THI QUYNH LOAN &amp; HA NGOC TUAN</t>
         </is>
       </c>
       <c r="C55" s="0">
-        <v>112690476</v>
+        <v>50676517</v>
       </c>
       <c r="D55" s="0">
-        <v>10372278</v>
+        <v>2533826</v>
       </c>
       <c r="E55" s="0">
-        <v>102318198</v>
+        <v>48142691</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>GIANG THI THAM</t>
+          <t>TRAN THI QUYNH LOAN</t>
         </is>
       </c>
       <c r="G55" s="0">
-        <v>102318198</v>
+        <v>48142691</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2071151</t>
+          <t>2060413</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GIANG THI THAM &amp; VO CONG HUNG</t>
+          <t>NGUYEN QUY BINH &amp; DAO NHAT LINH</t>
         </is>
       </c>
       <c r="C56" s="0">
-        <v>81513395</v>
+        <v>68227937</v>
       </c>
       <c r="D56" s="0">
-        <v>4075669</v>
+        <v>6258425</v>
       </c>
       <c r="E56" s="0">
-        <v>77437726</v>
+        <v>61969512</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>GIANG THI THAM</t>
+          <t>NGUYEN QUY BINH</t>
         </is>
       </c>
       <c r="G56" s="0">
-        <v>77437726</v>
+        <v>61969512</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2073692</t>
+          <t>2060413</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NGUYEN THI THANH HOA &amp; NGUYEN VAN CHINH</t>
+          <t>NGUYEN QUY BINH &amp; DAO NHAT LINH</t>
         </is>
       </c>
       <c r="C57" s="0">
-        <v>105583497</v>
+        <v>56727064</v>
       </c>
       <c r="D57" s="0">
-        <v>9107790</v>
+        <v>2836354</v>
       </c>
       <c r="E57" s="0">
-        <v>96475707</v>
+        <v>53890710</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>NGUYEN VAN CHINH</t>
+          <t>NGUYEN QUY BINH</t>
         </is>
       </c>
       <c r="G57" s="0">
-        <v>96475707</v>
+        <v>53890710</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2073692</t>
+          <t>2071151</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NGUYEN THI THANH HOA &amp; NGUYEN VAN CHINH</t>
+          <t>GIANG THI THAM &amp; VO CONG HUNG</t>
         </is>
       </c>
       <c r="C58" s="0">
-        <v>70722770</v>
+        <v>112690476</v>
       </c>
       <c r="D58" s="0">
-        <v>3536139</v>
+        <v>10372278</v>
       </c>
       <c r="E58" s="0">
-        <v>67186631</v>
+        <v>102318198</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NGUYEN VAN CHINH</t>
+          <t>GIANG THI THAM</t>
         </is>
       </c>
       <c r="G58" s="0">
-        <v>67186631</v>
+        <v>102318198</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2074792</t>
+          <t>2071151</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LE THI PHUONG CHI &amp; LE HO TUAN</t>
+          <t>GIANG THI THAM &amp; VO CONG HUNG</t>
         </is>
       </c>
       <c r="C59" s="0">
-        <v>42007013</v>
+        <v>81513395</v>
       </c>
       <c r="D59" s="0">
-        <v>6710361</v>
+        <v>4075669</v>
       </c>
       <c r="E59" s="0">
-        <v>35296652</v>
+        <v>77437726</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>LE THI PHUONG CHI</t>
+          <t>GIANG THI THAM</t>
         </is>
       </c>
       <c r="G59" s="0">
-        <v>35296652</v>
+        <v>77437726</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2358,30 +2358,30 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2080259</t>
+          <t>2073692</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TA VAN HUNG &amp; PHAM THI PHUONG ANH</t>
+          <t>NGUYEN THI THANH HOA &amp; NGUYEN VAN CHINH</t>
         </is>
       </c>
       <c r="C60" s="0">
-        <v>116389066</v>
+        <v>105583497</v>
       </c>
       <c r="D60" s="0">
-        <v>10465578</v>
+        <v>9107790</v>
       </c>
       <c r="E60" s="0">
-        <v>105923488</v>
+        <v>96475707</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>TA VAN HUNG</t>
+          <t>NGUYEN VAN CHINH</t>
         </is>
       </c>
       <c r="G60" s="0">
-        <v>105923488</v>
+        <v>96475707</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2392,30 +2392,30 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2080259</t>
+          <t>2073692</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TA VAN HUNG &amp; PHAM THI PHUONG ANH</t>
+          <t>NGUYEN THI THANH HOA &amp; NGUYEN VAN CHINH</t>
         </is>
       </c>
       <c r="C61" s="0">
-        <v>93278389</v>
+        <v>70722770</v>
       </c>
       <c r="D61" s="0">
-        <v>4663919</v>
+        <v>3536139</v>
       </c>
       <c r="E61" s="0">
-        <v>88614470</v>
+        <v>67186631</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>TA VAN HUNG</t>
+          <t>NGUYEN VAN CHINH</t>
         </is>
       </c>
       <c r="G61" s="0">
-        <v>88614470</v>
+        <v>67186631</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2426,200 +2426,200 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2085896</t>
+          <t>2074792</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NGUYEN THI HAO &amp; VO QUOC DAN</t>
+          <t>LE THI PHUONG CHI &amp; LE HO TUAN</t>
         </is>
       </c>
       <c r="C62" s="0">
-        <v>122078666</v>
+        <v>42007013</v>
       </c>
       <c r="D62" s="0">
-        <v>6103934</v>
+        <v>6710361</v>
       </c>
       <c r="E62" s="0">
-        <v>115974732</v>
+        <v>35296652</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NGUYEN THI HAO</t>
+          <t>LE THI PHUONG CHI</t>
         </is>
       </c>
       <c r="G62" s="0">
-        <v>115974732</v>
+        <v>35296652</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2085896</t>
+          <t>2080259</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NGUYEN THI HAO &amp; VO QUOC DAN</t>
+          <t>TA VAN HUNG &amp; PHAM THI PHUONG ANH</t>
         </is>
       </c>
       <c r="C63" s="0">
-        <v>112851406</v>
+        <v>116389066</v>
       </c>
       <c r="D63" s="0">
-        <v>5642570</v>
+        <v>10465578</v>
       </c>
       <c r="E63" s="0">
-        <v>107208836</v>
+        <v>105923488</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NGUYEN THI HAO</t>
+          <t>TA VAN HUNG</t>
         </is>
       </c>
       <c r="G63" s="0">
-        <v>107208836</v>
+        <v>105923488</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2089761</t>
+          <t>2080259</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NGUYEN THI LIEN &amp; NGUYEN DANG THAM</t>
+          <t>TA VAN HUNG &amp; PHAM THI PHUONG ANH</t>
         </is>
       </c>
       <c r="C64" s="0">
-        <v>57661377</v>
+        <v>93278389</v>
       </c>
       <c r="D64" s="0">
-        <v>5621327</v>
+        <v>4663919</v>
       </c>
       <c r="E64" s="0">
-        <v>52040050</v>
+        <v>88614470</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NGUYEN DANG THAM</t>
+          <t>TA VAN HUNG</t>
         </is>
       </c>
       <c r="G64" s="0">
-        <v>52040050</v>
+        <v>88614470</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2089761</t>
+          <t>2085896</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NGUYEN THI LIEN &amp; NGUYEN DANG THAM</t>
+          <t>NGUYEN THI HAO &amp; VO QUOC DAN</t>
         </is>
       </c>
       <c r="C65" s="0">
-        <v>57948909</v>
+        <v>122078666</v>
       </c>
       <c r="D65" s="0">
-        <v>2897446</v>
+        <v>6103934</v>
       </c>
       <c r="E65" s="0">
-        <v>55051463</v>
+        <v>115974732</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NGUYEN DANG THAM</t>
+          <t>NGUYEN THI HAO</t>
         </is>
       </c>
       <c r="G65" s="0">
-        <v>55051463</v>
+        <v>115974732</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2094977</t>
+          <t>2085896</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRINH THI BICH THAO &amp; NGUYEN XUAN KHAI</t>
+          <t>NGUYEN THI HAO &amp; VO QUOC DAN</t>
         </is>
       </c>
       <c r="C66" s="0">
-        <v>49771859</v>
+        <v>117603409</v>
       </c>
       <c r="D66" s="0">
-        <v>6123106</v>
+        <v>5880170</v>
       </c>
       <c r="E66" s="0">
-        <v>43648753</v>
+        <v>111723239</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>TRINH THI BICH THAO</t>
+          <t>NGUYEN THI HAO</t>
         </is>
       </c>
       <c r="G66" s="0">
-        <v>43648753</v>
+        <v>111723239</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2099113</t>
+          <t>2085896</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PHAM THI PHUONG THAO &amp; PHAM VAN VINH</t>
+          <t>NGUYEN THI HAO &amp; VO QUOC DAN</t>
         </is>
       </c>
       <c r="C67" s="0">
-        <v>26738258</v>
+        <v>112851406</v>
       </c>
       <c r="D67" s="0">
-        <v>6051940</v>
+        <v>5642570</v>
       </c>
       <c r="E67" s="0">
-        <v>20686318</v>
+        <v>107208836</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PHAM THI PHUONG THAO</t>
+          <t>NGUYEN THI HAO</t>
         </is>
       </c>
       <c r="G67" s="0">
-        <v>20686318</v>
+        <v>107208836</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2630,30 +2630,30 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2100350</t>
+          <t>2089761</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DANG THI HOANG YEN &amp; TRAN KHANH CUONG</t>
+          <t>NGUYEN THI LIEN &amp; NGUYEN DANG THAM</t>
         </is>
       </c>
       <c r="C68" s="0">
-        <v>211203777</v>
+        <v>57661377</v>
       </c>
       <c r="D68" s="0">
-        <v>10560189</v>
+        <v>5621327</v>
       </c>
       <c r="E68" s="0">
-        <v>200643588</v>
+        <v>52040050</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>DANG THI HOANG YEN</t>
+          <t>NGUYEN DANG THAM</t>
         </is>
       </c>
       <c r="G68" s="0">
-        <v>200643588</v>
+        <v>52040050</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2664,30 +2664,30 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2100350</t>
+          <t>2089761</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DANG THI HOANG YEN &amp; TRAN KHANH CUONG</t>
+          <t>NGUYEN THI LIEN &amp; NGUYEN DANG THAM</t>
         </is>
       </c>
       <c r="C69" s="0">
-        <v>205861457</v>
+        <v>57948909</v>
       </c>
       <c r="D69" s="0">
-        <v>10293073</v>
+        <v>2897446</v>
       </c>
       <c r="E69" s="0">
-        <v>195568384</v>
+        <v>55051463</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>DANG THI HOANG YEN</t>
+          <t>NGUYEN DANG THAM</t>
         </is>
       </c>
       <c r="G69" s="0">
-        <v>195568384</v>
+        <v>55051463</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2698,30 +2698,30 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2110443</t>
+          <t>2094977</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NGUYEN THI LAN CHI &amp; TRAN VAN NGHIA</t>
+          <t>TRINH THI BICH THAO &amp; NGUYEN XUAN KHAI</t>
         </is>
       </c>
       <c r="C70" s="0">
-        <v>50632169</v>
+        <v>49771859</v>
       </c>
       <c r="D70" s="0">
-        <v>6950027</v>
+        <v>6123106</v>
       </c>
       <c r="E70" s="0">
-        <v>43682142</v>
+        <v>43648753</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NGUYEN THI LAN CHI</t>
+          <t>TRINH THI BICH THAO</t>
         </is>
       </c>
       <c r="G70" s="0">
-        <v>43682142</v>
+        <v>43648753</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2732,132 +2732,132 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2116750</t>
+          <t>2099113</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRAN THI XUAN &amp; TRAN HAU HAI</t>
+          <t>PHAM THI PHUONG THAO &amp; PHAM VAN VINH</t>
         </is>
       </c>
       <c r="C71" s="0">
-        <v>71750641</v>
+        <v>26738258</v>
       </c>
       <c r="D71" s="0">
-        <v>6128281</v>
+        <v>6051940</v>
       </c>
       <c r="E71" s="0">
-        <v>65622360</v>
+        <v>20686318</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>TRAN HAU HAI</t>
+          <t>PHAM THI PHUONG THAO</t>
         </is>
       </c>
       <c r="G71" s="0">
-        <v>65622360</v>
+        <v>20686318</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2116750</t>
+          <t>2100350</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRAN THI XUAN &amp; TRAN HAU HAI</t>
+          <t>DANG THI HOANG YEN &amp; TRAN KHANH CUONG</t>
         </is>
       </c>
       <c r="C72" s="0">
-        <v>91679596</v>
+        <v>211203777</v>
       </c>
       <c r="D72" s="0">
-        <v>4583980</v>
+        <v>10560189</v>
       </c>
       <c r="E72" s="0">
-        <v>87095616</v>
+        <v>200643588</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>TRAN HAU HAI</t>
+          <t>DANG THI HOANG YEN</t>
         </is>
       </c>
       <c r="G72" s="0">
-        <v>87095616</v>
+        <v>200643588</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2124251</t>
+          <t>2100350</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRUONG THI THANH HUONG &amp; HOANG VAN HUNG</t>
+          <t>DANG THI HOANG YEN &amp; TRAN KHANH CUONG</t>
         </is>
       </c>
       <c r="C73" s="0">
-        <v>36504019</v>
+        <v>191585467</v>
       </c>
       <c r="D73" s="0">
-        <v>6004449</v>
+        <v>9579273</v>
       </c>
       <c r="E73" s="0">
-        <v>30499570</v>
+        <v>182006194</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>TRUONG THI THANH HUONG</t>
+          <t>DANG THI HOANG YEN</t>
         </is>
       </c>
       <c r="G73" s="0">
-        <v>30499570</v>
+        <v>182006194</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2131968</t>
+          <t>2100350</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NGUYEN THI CHINH &amp; DAU VAN THANG</t>
+          <t>DANG THI HOANG YEN &amp; TRAN KHANH CUONG</t>
         </is>
       </c>
       <c r="C74" s="0">
-        <v>39226609</v>
+        <v>205861457</v>
       </c>
       <c r="D74" s="0">
-        <v>6909565</v>
+        <v>10293073</v>
       </c>
       <c r="E74" s="0">
-        <v>32317044</v>
+        <v>195568384</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>NGUYEN THI CHINH</t>
+          <t>DANG THI HOANG YEN</t>
         </is>
       </c>
       <c r="G74" s="0">
-        <v>32317044</v>
+        <v>195568384</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2868,98 +2868,98 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2134575</t>
+          <t>2110443</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PHAN THI THUY &amp; NGUYEN VAN QUE</t>
+          <t>NGUYEN THI LAN CHI &amp; TRAN VAN NGHIA</t>
         </is>
       </c>
       <c r="C75" s="0">
-        <v>71296127</v>
+        <v>50632169</v>
       </c>
       <c r="D75" s="0">
-        <v>6925781</v>
+        <v>6950027</v>
       </c>
       <c r="E75" s="0">
-        <v>64370346</v>
+        <v>43682142</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>PHAN THI THUY</t>
+          <t>NGUYEN THI LAN CHI</t>
         </is>
       </c>
       <c r="G75" s="0">
-        <v>64370346</v>
+        <v>43682142</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2134575</t>
+          <t>2116750</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PHAN THI THUY &amp; NGUYEN VAN QUE</t>
+          <t>TRAN THI XUAN &amp; TRAN HAU HAI</t>
         </is>
       </c>
       <c r="C76" s="0">
-        <v>65975488</v>
+        <v>71750641</v>
       </c>
       <c r="D76" s="0">
-        <v>3298775</v>
+        <v>6128281</v>
       </c>
       <c r="E76" s="0">
-        <v>62676713</v>
+        <v>65622360</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>PHAN THI THUY</t>
+          <t>TRAN HAU HAI</t>
         </is>
       </c>
       <c r="G76" s="0">
-        <v>62676713</v>
+        <v>65622360</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2147117</t>
+          <t>2116750</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NGUYEN THI THUY VI &amp; HOANG THAI VU</t>
+          <t>TRAN THI XUAN &amp; TRAN HAU HAI</t>
         </is>
       </c>
       <c r="C77" s="0">
-        <v>42567905</v>
+        <v>91679596</v>
       </c>
       <c r="D77" s="0">
-        <v>5248973</v>
+        <v>4583980</v>
       </c>
       <c r="E77" s="0">
-        <v>37318932</v>
+        <v>87095616</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NGUYEN THI THUY VI</t>
+          <t>TRAN HAU HAI</t>
         </is>
       </c>
       <c r="G77" s="0">
-        <v>37318932</v>
+        <v>87095616</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -2970,30 +2970,30 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2151837</t>
+          <t>2124251</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRAN VAN DUNG &amp; NGUYEN THI HAI YEN</t>
+          <t>TRUONG THI THANH HUONG &amp; HOANG VAN HUNG</t>
         </is>
       </c>
       <c r="C78" s="0">
-        <v>33980430</v>
+        <v>36504019</v>
       </c>
       <c r="D78" s="0">
-        <v>6026065</v>
+        <v>6004449</v>
       </c>
       <c r="E78" s="0">
-        <v>27954365</v>
+        <v>30499570</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NGUYEN THI HAI YEN</t>
+          <t>TRUONG THI THANH HUONG</t>
         </is>
       </c>
       <c r="G78" s="0">
-        <v>27954365</v>
+        <v>30499570</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3004,98 +3004,98 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2156905</t>
+          <t>2131968</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRINH THI HUE NUONG &amp; CHU DINH THE</t>
+          <t>NGUYEN THI CHINH &amp; DAU VAN THANG</t>
         </is>
       </c>
       <c r="C79" s="0">
-        <v>69053828</v>
+        <v>39226609</v>
       </c>
       <c r="D79" s="0">
-        <v>6531725</v>
+        <v>6909565</v>
       </c>
       <c r="E79" s="0">
-        <v>62522103</v>
+        <v>32317044</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>TRINH THI HUE NUONG</t>
+          <t>NGUYEN THI CHINH</t>
         </is>
       </c>
       <c r="G79" s="0">
-        <v>62522103</v>
+        <v>32317044</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2156905</t>
+          <t>2134575</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRINH THI HUE NUONG &amp; CHU DINH THE</t>
+          <t>PHAN THI THUY &amp; NGUYEN VAN QUE</t>
         </is>
       </c>
       <c r="C80" s="0">
-        <v>55659210</v>
+        <v>71296127</v>
       </c>
       <c r="D80" s="0">
-        <v>2782960</v>
+        <v>6925781</v>
       </c>
       <c r="E80" s="0">
-        <v>52876250</v>
+        <v>64370346</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>TRINH THI HUE NUONG</t>
+          <t>PHAN THI THUY</t>
         </is>
       </c>
       <c r="G80" s="0">
-        <v>52876250</v>
+        <v>64370346</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2162847</t>
+          <t>2134575</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NGUYEN THI NGA &amp; VU MAI PHONG</t>
+          <t>PHAN THI THUY &amp; NGUYEN VAN QUE</t>
         </is>
       </c>
       <c r="C81" s="0">
-        <v>44200874</v>
+        <v>65975488</v>
       </c>
       <c r="D81" s="0">
-        <v>6889747</v>
+        <v>3298775</v>
       </c>
       <c r="E81" s="0">
-        <v>37311127</v>
+        <v>62676713</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NGUYEN THI NGA</t>
+          <t>PHAN THI THUY</t>
         </is>
       </c>
       <c r="G81" s="0">
-        <v>37311127</v>
+        <v>62676713</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3106,30 +3106,30 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2166520</t>
+          <t>2147117</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRAN HIEU DUY &amp; DANG TIEU QUYNH</t>
+          <t>NGUYEN THI THUY VI &amp; HOANG THAI VU</t>
         </is>
       </c>
       <c r="C82" s="0">
-        <v>37232526</v>
+        <v>42567905</v>
       </c>
       <c r="D82" s="0">
-        <v>5409184</v>
+        <v>5248973</v>
       </c>
       <c r="E82" s="0">
-        <v>31823342</v>
+        <v>37318932</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>TRAN HIEU DUY</t>
+          <t>NGUYEN THI THUY VI</t>
         </is>
       </c>
       <c r="G82" s="0">
-        <v>31823342</v>
+        <v>37318932</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3140,132 +3140,132 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2179467</t>
+          <t>2151837</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NGUYEN THI THANH HUONG &amp; KIEU THANH CA</t>
+          <t>TRAN VAN DUNG &amp; NGUYEN THI HAI YEN</t>
         </is>
       </c>
       <c r="C83" s="0">
-        <v>137379309</v>
+        <v>33980430</v>
       </c>
       <c r="D83" s="0">
-        <v>6868965</v>
+        <v>6026065</v>
       </c>
       <c r="E83" s="0">
-        <v>130510344</v>
+        <v>27954365</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NGUYEN THI THANH HUONG</t>
+          <t>NGUYEN THI HAI YEN</t>
         </is>
       </c>
       <c r="G83" s="0">
-        <v>130510344</v>
+        <v>27954365</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2179467</t>
+          <t>2156905</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NGUYEN THI THANH HUONG &amp; KIEU THANH CA</t>
+          <t>TRINH THI HUE NUONG &amp; CHU DINH THE</t>
         </is>
       </c>
       <c r="C84" s="0">
-        <v>124550263</v>
+        <v>69053828</v>
       </c>
       <c r="D84" s="0">
-        <v>6227514</v>
+        <v>6531725</v>
       </c>
       <c r="E84" s="0">
-        <v>118322749</v>
+        <v>62522103</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>NGUYEN THI THANH HUONG</t>
+          <t>TRINH THI HUE NUONG</t>
         </is>
       </c>
       <c r="G84" s="0">
-        <v>118322749</v>
+        <v>62522103</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2195394</t>
+          <t>2156905</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NGUYEN NGOC TY &amp; TRINH THI THU TRANG</t>
+          <t>TRINH THI HUE NUONG &amp; CHU DINH THE</t>
         </is>
       </c>
       <c r="C85" s="0">
-        <v>97065613</v>
+        <v>55659210</v>
       </c>
       <c r="D85" s="0">
-        <v>9011173</v>
+        <v>2782960</v>
       </c>
       <c r="E85" s="0">
-        <v>88054440</v>
+        <v>52876250</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NGUYEN NGOC TY</t>
+          <t>TRINH THI HUE NUONG</t>
         </is>
       </c>
       <c r="G85" s="0">
-        <v>88054440</v>
+        <v>52876250</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2195394</t>
+          <t>2162847</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NGUYEN NGOC TY &amp; TRINH THI THU TRANG</t>
+          <t>NGUYEN THI NGA &amp; VU MAI PHONG</t>
         </is>
       </c>
       <c r="C86" s="0">
-        <v>84149309</v>
+        <v>44200874</v>
       </c>
       <c r="D86" s="0">
-        <v>4207465</v>
+        <v>6889747</v>
       </c>
       <c r="E86" s="0">
-        <v>79941844</v>
+        <v>37311127</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>NGUYEN NGOC TY</t>
+          <t>NGUYEN THI NGA</t>
         </is>
       </c>
       <c r="G86" s="0">
-        <v>79941844</v>
+        <v>37311127</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3276,132 +3276,132 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2198857</t>
+          <t>2166520</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BUI THUY HA &amp; NGUYEN HUY HOANG</t>
+          <t>TRAN HIEU DUY &amp; DANG TIEU QUYNH</t>
         </is>
       </c>
       <c r="C87" s="0">
-        <v>71948028</v>
+        <v>37232526</v>
       </c>
       <c r="D87" s="0">
-        <v>6942637</v>
+        <v>5409184</v>
       </c>
       <c r="E87" s="0">
-        <v>65005391</v>
+        <v>31823342</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>BUI THUY HA</t>
+          <t>TRAN HIEU DUY</t>
         </is>
       </c>
       <c r="G87" s="0">
-        <v>65005391</v>
+        <v>31823342</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2198857</t>
+          <t>2179467</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BUI THUY HA &amp; NGUYEN HUY HOANG</t>
+          <t>NGUYEN THI THANH HUONG &amp; KIEU THANH CA</t>
         </is>
       </c>
       <c r="C88" s="0">
-        <v>54612990</v>
+        <v>137379309</v>
       </c>
       <c r="D88" s="0">
-        <v>2730650</v>
+        <v>6868965</v>
       </c>
       <c r="E88" s="0">
-        <v>51882340</v>
+        <v>130510344</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>BUI THUY HA</t>
+          <t>NGUYEN THI THANH HUONG</t>
         </is>
       </c>
       <c r="G88" s="0">
-        <v>51882340</v>
+        <v>130510344</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2200071</t>
+          <t>2179467</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PHAM BAO THO &amp; NGUYEN THANH TRUNG</t>
+          <t>NGUYEN THI THANH HUONG &amp; KIEU THANH CA</t>
         </is>
       </c>
       <c r="C89" s="0">
-        <v>213698742</v>
+        <v>127623179</v>
       </c>
       <c r="D89" s="0">
-        <v>10684937</v>
+        <v>6381159</v>
       </c>
       <c r="E89" s="0">
-        <v>203013805</v>
+        <v>121242020</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>PHAM BAO THO</t>
+          <t>NGUYEN THI THANH HUONG</t>
         </is>
       </c>
       <c r="G89" s="0">
-        <v>203013805</v>
+        <v>121242020</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2200071</t>
+          <t>2179467</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PHAM BAO THO &amp; NGUYEN THANH TRUNG</t>
+          <t>NGUYEN THI THANH HUONG &amp; KIEU THANH CA</t>
         </is>
       </c>
       <c r="C90" s="0">
-        <v>207420923</v>
+        <v>124550263</v>
       </c>
       <c r="D90" s="0">
-        <v>10371046</v>
+        <v>6227514</v>
       </c>
       <c r="E90" s="0">
-        <v>197049877</v>
+        <v>118322749</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>PHAM BAO THO</t>
+          <t>NGUYEN THI THANH HUONG</t>
         </is>
       </c>
       <c r="G90" s="0">
-        <v>197049877</v>
+        <v>118322749</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3412,30 +3412,30 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2202457</t>
+          <t>2195394</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HOANG THI KIM TUYET &amp; LE DUC MINH</t>
+          <t>NGUYEN NGOC TY &amp; TRINH THI THU TRANG</t>
         </is>
       </c>
       <c r="C91" s="0">
-        <v>61719230</v>
+        <v>97065613</v>
       </c>
       <c r="D91" s="0">
-        <v>5589948</v>
+        <v>9011173</v>
       </c>
       <c r="E91" s="0">
-        <v>56129282</v>
+        <v>88054440</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>HOANG THI KIM TUYET</t>
+          <t>NGUYEN NGOC TY</t>
         </is>
       </c>
       <c r="G91" s="0">
-        <v>56129282</v>
+        <v>88054440</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3446,30 +3446,30 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2202457</t>
+          <t>2195394</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HOANG THI KIM TUYET &amp; LE DUC MINH</t>
+          <t>NGUYEN NGOC TY &amp; TRINH THI THU TRANG</t>
         </is>
       </c>
       <c r="C92" s="0">
-        <v>56292339</v>
+        <v>84149309</v>
       </c>
       <c r="D92" s="0">
-        <v>2814617</v>
+        <v>4207465</v>
       </c>
       <c r="E92" s="0">
-        <v>53477722</v>
+        <v>79941844</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>HOANG THI KIM TUYET</t>
+          <t>NGUYEN NGOC TY</t>
         </is>
       </c>
       <c r="G92" s="0">
-        <v>53477722</v>
+        <v>79941844</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3480,30 +3480,30 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2203112</t>
+          <t>2198857</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>VO THI PHI PHUONG &amp; PHAM VIET BAC</t>
+          <t>BUI THUY HA &amp; NGUYEN HUY HOANG</t>
         </is>
       </c>
       <c r="C93" s="0">
-        <v>145652529</v>
+        <v>71948028</v>
       </c>
       <c r="D93" s="0">
-        <v>7282626</v>
+        <v>6942637</v>
       </c>
       <c r="E93" s="0">
-        <v>138369903</v>
+        <v>65005391</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>PHAM VIET BAC</t>
+          <t>BUI THUY HA</t>
         </is>
       </c>
       <c r="G93" s="0">
-        <v>138369903</v>
+        <v>65005391</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3514,30 +3514,30 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2203112</t>
+          <t>2198857</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>VO THI PHI PHUONG &amp; PHAM VIET BAC</t>
+          <t>BUI THUY HA &amp; NGUYEN HUY HOANG</t>
         </is>
       </c>
       <c r="C94" s="0">
-        <v>126785583</v>
+        <v>54612990</v>
       </c>
       <c r="D94" s="0">
-        <v>6339279</v>
+        <v>2730650</v>
       </c>
       <c r="E94" s="0">
-        <v>120446304</v>
+        <v>51882340</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>PHAM VIET BAC</t>
+          <t>BUI THUY HA</t>
         </is>
       </c>
       <c r="G94" s="0">
-        <v>120446304</v>
+        <v>51882340</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3548,98 +3548,98 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2203398</t>
+          <t>2200071</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DO MINH PHUNG &amp; NGUYEN THI KIM THOA</t>
+          <t>PHAM BAO THO &amp; NGUYEN THANH TRUNG</t>
         </is>
       </c>
       <c r="C95" s="0">
-        <v>38966005</v>
+        <v>213698742</v>
       </c>
       <c r="D95" s="0">
-        <v>5127527</v>
+        <v>10684937</v>
       </c>
       <c r="E95" s="0">
-        <v>33838478</v>
+        <v>203013805</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>NGUYEN THI KIM THOA</t>
+          <t>PHAM BAO THO</t>
         </is>
       </c>
       <c r="G95" s="0">
-        <v>33838478</v>
+        <v>203013805</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2203399</t>
+          <t>2200071</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>HUYNH LE HOANG QUAN &amp; NGUYEN THI THU THUY</t>
+          <t>PHAM BAO THO &amp; NGUYEN THANH TRUNG</t>
         </is>
       </c>
       <c r="C96" s="0">
-        <v>124296761</v>
+        <v>217546623</v>
       </c>
       <c r="D96" s="0">
-        <v>6214838</v>
+        <v>10877331</v>
       </c>
       <c r="E96" s="0">
-        <v>118081923</v>
+        <v>206669292</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>NGUYEN THI THU THUY</t>
+          <t>PHAM BAO THO</t>
         </is>
       </c>
       <c r="G96" s="0">
-        <v>118081923</v>
+        <v>206669292</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2203399</t>
+          <t>2200071</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HUYNH LE HOANG QUAN &amp; NGUYEN THI THU THUY</t>
+          <t>PHAM BAO THO &amp; NGUYEN THANH TRUNG</t>
         </is>
       </c>
       <c r="C97" s="0">
-        <v>118915236</v>
+        <v>207420923</v>
       </c>
       <c r="D97" s="0">
-        <v>5945761</v>
+        <v>10371046</v>
       </c>
       <c r="E97" s="0">
-        <v>112969475</v>
+        <v>197049877</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>NGUYEN THI THU THUY</t>
+          <t>PHAM BAO THO</t>
         </is>
       </c>
       <c r="G97" s="0">
-        <v>112969475</v>
+        <v>197049877</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3650,166 +3650,166 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2203406</t>
+          <t>2202457</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NGUYEN NGOC PHU &amp; TRAN HOANG BAO TRAN</t>
+          <t>HOANG THI KIM TUYET &amp; LE DUC MINH</t>
         </is>
       </c>
       <c r="C98" s="0">
-        <v>37064311</v>
+        <v>61719230</v>
       </c>
       <c r="D98" s="0">
-        <v>5431754</v>
+        <v>5589948</v>
       </c>
       <c r="E98" s="0">
-        <v>31632557</v>
+        <v>56129282</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>NGUYEN NGOC PHU</t>
+          <t>HOANG THI KIM TUYET</t>
         </is>
       </c>
       <c r="G98" s="0">
-        <v>31632557</v>
+        <v>56129282</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2203569</t>
+          <t>2202457</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NGUYEN THI DIEM HAN &amp; NGUYEN CHI BINH</t>
+          <t>HOANG THI KIM TUYET &amp; LE DUC MINH</t>
         </is>
       </c>
       <c r="C99" s="0">
-        <v>127319671</v>
+        <v>56292339</v>
       </c>
       <c r="D99" s="0">
-        <v>6365983</v>
+        <v>2814617</v>
       </c>
       <c r="E99" s="0">
-        <v>120953688</v>
+        <v>53477722</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>NGUYEN THI DIEM HAN</t>
+          <t>HOANG THI KIM TUYET</t>
         </is>
       </c>
       <c r="G99" s="0">
-        <v>120953688</v>
+        <v>53477722</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2203569</t>
+          <t>2203112</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NGUYEN THI DIEM HAN &amp; NGUYEN CHI BINH</t>
+          <t>VO THI PHI PHUONG &amp; PHAM VIET BAC</t>
         </is>
       </c>
       <c r="C100" s="0">
-        <v>105920374</v>
+        <v>145652529</v>
       </c>
       <c r="D100" s="0">
-        <v>5296019</v>
+        <v>7282626</v>
       </c>
       <c r="E100" s="0">
-        <v>100624355</v>
+        <v>138369903</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>NGUYEN THI DIEM HAN</t>
+          <t>PHAM VIET BAC</t>
         </is>
       </c>
       <c r="G100" s="0">
-        <v>100624355</v>
+        <v>138369903</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2205040</t>
+          <t>2203112</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>HUYNH THI THUY AN &amp; BUI TAN HA</t>
+          <t>VO THI PHI PHUONG &amp; PHAM VIET BAC</t>
         </is>
       </c>
       <c r="C101" s="0">
-        <v>79363795</v>
+        <v>106019854</v>
       </c>
       <c r="D101" s="0">
-        <v>7665621</v>
+        <v>5300993</v>
       </c>
       <c r="E101" s="0">
-        <v>71698174</v>
+        <v>100718861</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>HUYNH THI THUY AN</t>
+          <t>PHAM VIET BAC</t>
         </is>
       </c>
       <c r="G101" s="0">
-        <v>71698174</v>
+        <v>100718861</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2205040</t>
+          <t>2203112</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>HUYNH THI THUY AN &amp; BUI TAN HA</t>
+          <t>VO THI PHI PHUONG &amp; PHAM VIET BAC</t>
         </is>
       </c>
       <c r="C102" s="0">
-        <v>60637478</v>
+        <v>126785583</v>
       </c>
       <c r="D102" s="0">
-        <v>3031874</v>
+        <v>6339279</v>
       </c>
       <c r="E102" s="0">
-        <v>57605604</v>
+        <v>120446304</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>HUYNH THI THUY AN</t>
+          <t>PHAM VIET BAC</t>
         </is>
       </c>
       <c r="G102" s="0">
-        <v>57605604</v>
+        <v>120446304</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3820,132 +3820,132 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2208992</t>
+          <t>2203398</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NGUYEN HOANG THANH &amp; BUI THI HOA</t>
+          <t>DO MINH PHUNG &amp; NGUYEN THI KIM THOA</t>
         </is>
       </c>
       <c r="C103" s="0">
-        <v>61272771</v>
+        <v>38966005</v>
       </c>
       <c r="D103" s="0">
-        <v>5008123</v>
+        <v>5127527</v>
       </c>
       <c r="E103" s="0">
-        <v>56264648</v>
+        <v>33838478</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>NGUYEN HOANG THANH</t>
+          <t>NGUYEN THI KIM THOA</t>
         </is>
       </c>
       <c r="G103" s="0">
-        <v>56264648</v>
+        <v>33838478</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2208992</t>
+          <t>2203399</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NGUYEN HOANG THANH &amp; BUI THI HOA</t>
+          <t>HUYNH LE HOANG QUAN &amp; NGUYEN THI THU THUY</t>
         </is>
       </c>
       <c r="C104" s="0">
-        <v>38816338</v>
+        <v>124296761</v>
       </c>
       <c r="D104" s="0">
-        <v>1940817</v>
+        <v>6214838</v>
       </c>
       <c r="E104" s="0">
-        <v>36875521</v>
+        <v>118081923</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>NGUYEN HOANG THANH</t>
+          <t>NGUYEN THI THU THUY</t>
         </is>
       </c>
       <c r="G104" s="0">
-        <v>36875521</v>
+        <v>118081923</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2215059</t>
+          <t>2203399</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TON NU THUY MY &amp; TRUONG TAN HOANG</t>
+          <t>HUYNH LE HOANG QUAN &amp; NGUYEN THI THU THUY</t>
         </is>
       </c>
       <c r="C105" s="0">
-        <v>75551615</v>
+        <v>116227870</v>
       </c>
       <c r="D105" s="0">
-        <v>5902338</v>
+        <v>5811394</v>
       </c>
       <c r="E105" s="0">
-        <v>69649277</v>
+        <v>110416476</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>TON NU THUY MY</t>
+          <t>NGUYEN THI THU THUY</t>
         </is>
       </c>
       <c r="G105" s="0">
-        <v>69649277</v>
+        <v>110416476</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2215059</t>
+          <t>2203399</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TON NU THUY MY &amp; TRUONG TAN HOANG</t>
+          <t>HUYNH LE HOANG QUAN &amp; NGUYEN THI THU THUY</t>
         </is>
       </c>
       <c r="C106" s="0">
-        <v>63755307</v>
+        <v>118915236</v>
       </c>
       <c r="D106" s="0">
-        <v>3187765</v>
+        <v>5945761</v>
       </c>
       <c r="E106" s="0">
-        <v>60567542</v>
+        <v>112969475</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>TON NU THUY MY</t>
+          <t>NGUYEN THI THU THUY</t>
         </is>
       </c>
       <c r="G106" s="0">
-        <v>60567542</v>
+        <v>112969475</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -3956,132 +3956,132 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2219667</t>
+          <t>2203406</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TON NU THUY DINH &amp; DO VAN CUONG</t>
+          <t>NGUYEN NGOC PHU &amp; TRAN HOANG BAO TRAN</t>
         </is>
       </c>
       <c r="C107" s="0">
-        <v>68597694</v>
+        <v>37064311</v>
       </c>
       <c r="D107" s="0">
-        <v>7033795</v>
+        <v>5431754</v>
       </c>
       <c r="E107" s="0">
-        <v>61563899</v>
+        <v>31632557</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>TON NU THUY DINH</t>
+          <t>NGUYEN NGOC PHU</t>
         </is>
       </c>
       <c r="G107" s="0">
-        <v>61563899</v>
+        <v>31632557</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2219667</t>
+          <t>2203569</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TON NU THUY DINH &amp; DO VAN CUONG</t>
+          <t>NGUYEN THI DIEM HAN &amp; NGUYEN CHI BINH</t>
         </is>
       </c>
       <c r="C108" s="0">
-        <v>71739761</v>
+        <v>127319671</v>
       </c>
       <c r="D108" s="0">
-        <v>3586988</v>
+        <v>6365983</v>
       </c>
       <c r="E108" s="0">
-        <v>68152773</v>
+        <v>120953688</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>TON NU THUY DINH</t>
+          <t>NGUYEN THI DIEM HAN</t>
         </is>
       </c>
       <c r="G108" s="0">
-        <v>68152773</v>
+        <v>120953688</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2224873</t>
+          <t>2203569</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PHAM MANH TOAN &amp; LE THI THUY LINH</t>
+          <t>NGUYEN THI DIEM HAN &amp; NGUYEN CHI BINH</t>
         </is>
       </c>
       <c r="C109" s="0">
-        <v>41107308</v>
+        <v>102535510</v>
       </c>
       <c r="D109" s="0">
-        <v>5647299</v>
+        <v>5126776</v>
       </c>
       <c r="E109" s="0">
-        <v>35460009</v>
+        <v>97408734</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>PHAM MANH TOAN</t>
+          <t>NGUYEN THI DIEM HAN</t>
         </is>
       </c>
       <c r="G109" s="0">
-        <v>35460009</v>
+        <v>97408734</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2241234</t>
+          <t>2203569</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NGUYEN MINH TRUNG &amp; LE THI PHUONG THAO</t>
+          <t>NGUYEN THI DIEM HAN &amp; NGUYEN CHI BINH</t>
         </is>
       </c>
       <c r="C110" s="0">
-        <v>29124891</v>
+        <v>105920374</v>
       </c>
       <c r="D110" s="0">
-        <v>5099909</v>
+        <v>5296019</v>
       </c>
       <c r="E110" s="0">
-        <v>24024982</v>
+        <v>100624355</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>NGUYEN MINH TRUNG</t>
+          <t>NGUYEN THI DIEM HAN</t>
         </is>
       </c>
       <c r="G110" s="0">
-        <v>24024982</v>
+        <v>100624355</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4092,30 +4092,30 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2247686</t>
+          <t>2205040</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NGUYEN THI NGUYET &amp; TRAN VAN DAO</t>
+          <t>HUYNH THI THUY AN &amp; BUI TAN HA</t>
         </is>
       </c>
       <c r="C111" s="0">
-        <v>67621232</v>
+        <v>79363795</v>
       </c>
       <c r="D111" s="0">
-        <v>6420227</v>
+        <v>7665621</v>
       </c>
       <c r="E111" s="0">
-        <v>61201005</v>
+        <v>71698174</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>NGUYEN THI NGUYET</t>
+          <t>HUYNH THI THUY AN</t>
         </is>
       </c>
       <c r="G111" s="0">
-        <v>61201005</v>
+        <v>71698174</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4126,30 +4126,30 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2247686</t>
+          <t>2205040</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NGUYEN THI NGUYET &amp; TRAN VAN DAO</t>
+          <t>HUYNH THI THUY AN &amp; BUI TAN HA</t>
         </is>
       </c>
       <c r="C112" s="0">
-        <v>80064304</v>
+        <v>60637478</v>
       </c>
       <c r="D112" s="0">
-        <v>4003216</v>
+        <v>3031874</v>
       </c>
       <c r="E112" s="0">
-        <v>76061088</v>
+        <v>57605604</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>NGUYEN THI NGUYET</t>
+          <t>HUYNH THI THUY AN</t>
         </is>
       </c>
       <c r="G112" s="0">
-        <v>76061088</v>
+        <v>57605604</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4160,124 +4160,124 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2248779</t>
+          <t>2208992</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NGUYEN THI PHUONG THANH &amp; NGUYEN HOANG QUOC</t>
+          <t>NGUYEN HOANG THANH &amp; BUI THI HOA</t>
         </is>
       </c>
       <c r="C113" s="0">
-        <v>38019968</v>
+        <v>61272771</v>
       </c>
       <c r="D113" s="0">
-        <v>6185269</v>
+        <v>5008123</v>
       </c>
       <c r="E113" s="0">
-        <v>31834699</v>
+        <v>56264648</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>NGUYEN HOANG QUOC</t>
+          <t>NGUYEN HOANG THANH</t>
         </is>
       </c>
       <c r="G113" s="0">
-        <v>31834699</v>
+        <v>56264648</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2256088</t>
+          <t>2208992</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CAO VAN HAY &amp; DOAN THI XUAN MAI</t>
+          <t>NGUYEN HOANG THANH &amp; BUI THI HOA</t>
         </is>
       </c>
       <c r="C114" s="0">
-        <v>43478779</v>
+        <v>38816338</v>
       </c>
       <c r="D114" s="0">
-        <v>7081368</v>
+        <v>1940817</v>
       </c>
       <c r="E114" s="0">
-        <v>36397411</v>
+        <v>36875521</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>DOAN THI XUAN MAI</t>
+          <t>NGUYEN HOANG THANH</t>
         </is>
       </c>
       <c r="G114" s="0">
-        <v>36397411</v>
+        <v>36875521</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2256088</t>
+          <t>2215059</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CAO VAN HAY &amp; DOAN THI XUAN MAI</t>
+          <t>TON NU THUY MY &amp; TRUONG TAN HOANG</t>
         </is>
       </c>
       <c r="C115" s="0">
-        <v>53119259</v>
+        <v>75551615</v>
       </c>
       <c r="D115" s="0">
-        <v>2655963</v>
+        <v>5902338</v>
       </c>
       <c r="E115" s="0">
-        <v>50463296</v>
+        <v>69649277</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>DOAN THI XUAN MAI</t>
+          <t>TON NU THUY MY</t>
         </is>
       </c>
       <c r="G115" s="0">
-        <v>50463296</v>
+        <v>69649277</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2259440</t>
+          <t>2215059</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TON NU THUY MY &amp; NGUYEN QUOC HUNG</t>
+          <t>TON NU THUY MY &amp; TRUONG TAN HOANG</t>
         </is>
       </c>
       <c r="C116" s="0">
-        <v>62549846</v>
+        <v>63755307</v>
       </c>
       <c r="D116" s="0">
-        <v>5501774</v>
+        <v>3187765</v>
       </c>
       <c r="E116" s="0">
-        <v>57048072</v>
+        <v>60567542</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4285,109 +4285,109 @@
         </is>
       </c>
       <c r="G116" s="0">
-        <v>57048072</v>
+        <v>60567542</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2259440</t>
+          <t>2219667</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TON NU THUY MY &amp; NGUYEN QUOC HUNG</t>
+          <t>TON NU THUY DINH &amp; DO VAN CUONG</t>
         </is>
       </c>
       <c r="C117" s="0">
-        <v>38174529</v>
+        <v>68597694</v>
       </c>
       <c r="D117" s="0">
-        <v>1908726</v>
+        <v>7033795</v>
       </c>
       <c r="E117" s="0">
-        <v>36265803</v>
+        <v>61563899</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>TON NU THUY MY</t>
+          <t>TON NU THUY DINH</t>
         </is>
       </c>
       <c r="G117" s="0">
-        <v>36265803</v>
+        <v>61563899</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2266945</t>
+          <t>2219667</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NGUYEN MANH HUNG &amp; NGUYEN THI THAO NGA</t>
+          <t>TON NU THUY DINH &amp; DO VAN CUONG</t>
         </is>
       </c>
       <c r="C118" s="0">
-        <v>99710129</v>
+        <v>71739761</v>
       </c>
       <c r="D118" s="0">
-        <v>7152187</v>
+        <v>3586988</v>
       </c>
       <c r="E118" s="0">
-        <v>92557942</v>
+        <v>68152773</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>NGUYEN THI THAO NGA</t>
+          <t>TON NU THUY DINH</t>
         </is>
       </c>
       <c r="G118" s="0">
-        <v>92557942</v>
+        <v>68152773</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2266945</t>
+          <t>2224873</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NGUYEN MANH HUNG &amp; NGUYEN THI THAO NGA</t>
+          <t>PHAM MANH TOAN &amp; LE THI THUY LINH</t>
         </is>
       </c>
       <c r="C119" s="0">
-        <v>53868867</v>
+        <v>41107308</v>
       </c>
       <c r="D119" s="0">
-        <v>2693443</v>
+        <v>5647299</v>
       </c>
       <c r="E119" s="0">
-        <v>51175424</v>
+        <v>35460009</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>NGUYEN THI THAO NGA</t>
+          <t>PHAM MANH TOAN</t>
         </is>
       </c>
       <c r="G119" s="0">
-        <v>51175424</v>
+        <v>35460009</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4398,30 +4398,30 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2272295</t>
+          <t>2241234</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MAI THI HOANG TUYET &amp; HOANG SY QUANG</t>
+          <t>NGUYEN MINH TRUNG &amp; LE THI PHUONG THAO</t>
         </is>
       </c>
       <c r="C120" s="0">
-        <v>42947817</v>
+        <v>29124891</v>
       </c>
       <c r="D120" s="0">
-        <v>5829212</v>
+        <v>5099909</v>
       </c>
       <c r="E120" s="0">
-        <v>37118605</v>
+        <v>24024982</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>MAI THI HOANG TUYET</t>
+          <t>NGUYEN MINH TRUNG</t>
         </is>
       </c>
       <c r="G120" s="0">
-        <v>37118605</v>
+        <v>24024982</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -4432,30 +4432,30 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2277158</t>
+          <t>2247686</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRAN VAN TRI &amp; LE THI KIM LIEN</t>
+          <t>NGUYEN THI NGUYET &amp; TRAN VAN DAO</t>
         </is>
       </c>
       <c r="C121" s="0">
-        <v>118223977</v>
+        <v>67621232</v>
       </c>
       <c r="D121" s="0">
-        <v>5911199</v>
+        <v>6420227</v>
       </c>
       <c r="E121" s="0">
-        <v>112312778</v>
+        <v>61201005</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>LE THI KIM LIEN</t>
+          <t>NGUYEN THI NGUYET</t>
         </is>
       </c>
       <c r="G121" s="0">
-        <v>112312778</v>
+        <v>61201005</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -4466,30 +4466,30 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2277158</t>
+          <t>2247686</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRAN VAN TRI &amp; LE THI KIM LIEN</t>
+          <t>NGUYEN THI NGUYET &amp; TRAN VAN DAO</t>
         </is>
       </c>
       <c r="C122" s="0">
-        <v>118185064</v>
+        <v>80064304</v>
       </c>
       <c r="D122" s="0">
-        <v>5909253</v>
+        <v>4003216</v>
       </c>
       <c r="E122" s="0">
-        <v>112275811</v>
+        <v>76061088</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>LE THI KIM LIEN</t>
+          <t>NGUYEN THI NGUYET</t>
         </is>
       </c>
       <c r="G122" s="0">
-        <v>112275811</v>
+        <v>76061088</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -4500,30 +4500,30 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2277963</t>
+          <t>2248779</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>LE MINH LOC &amp; VO THI THU NGAN</t>
+          <t>NGUYEN THI PHUONG THANH &amp; NGUYEN HOANG QUOC</t>
         </is>
       </c>
       <c r="C123" s="0">
-        <v>39108185</v>
+        <v>38019968</v>
       </c>
       <c r="D123" s="0">
-        <v>6338169</v>
+        <v>6185269</v>
       </c>
       <c r="E123" s="0">
-        <v>32770016</v>
+        <v>31834699</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>LE MINH LOC</t>
+          <t>NGUYEN HOANG QUOC</t>
         </is>
       </c>
       <c r="G123" s="0">
-        <v>32770016</v>
+        <v>31834699</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -4534,30 +4534,30 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2291306</t>
+          <t>2256088</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NGUYEN THI PHUONG &amp; NGUYEN VAN SON</t>
+          <t>CAO VAN HAY &amp; DOAN THI XUAN MAI</t>
         </is>
       </c>
       <c r="C124" s="0">
-        <v>74266137</v>
+        <v>43478779</v>
       </c>
       <c r="D124" s="0">
-        <v>5584126</v>
+        <v>7081368</v>
       </c>
       <c r="E124" s="0">
-        <v>68682011</v>
+        <v>36397411</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>NGUYEN VAN SON</t>
+          <t>DOAN THI XUAN MAI</t>
         </is>
       </c>
       <c r="G124" s="0">
-        <v>68682011</v>
+        <v>36397411</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4568,30 +4568,30 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2291306</t>
+          <t>2256088</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NGUYEN THI PHUONG &amp; NGUYEN VAN SON</t>
+          <t>CAO VAN HAY &amp; DOAN THI XUAN MAI</t>
         </is>
       </c>
       <c r="C125" s="0">
-        <v>53933153</v>
+        <v>53119259</v>
       </c>
       <c r="D125" s="0">
-        <v>2696657</v>
+        <v>2655963</v>
       </c>
       <c r="E125" s="0">
-        <v>51236496</v>
+        <v>50463296</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>NGUYEN VAN SON</t>
+          <t>DOAN THI XUAN MAI</t>
         </is>
       </c>
       <c r="G125" s="0">
-        <v>51236496</v>
+        <v>50463296</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -4602,132 +4602,132 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2292825</t>
+          <t>2259440</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DANG THI THANH XUAN &amp; DOAN CANH TAM</t>
+          <t>TON NU THUY MY &amp; NGUYEN QUOC HUNG</t>
         </is>
       </c>
       <c r="C126" s="0">
-        <v>37536826</v>
+        <v>62549846</v>
       </c>
       <c r="D126" s="0">
-        <v>5292770</v>
+        <v>5501774</v>
       </c>
       <c r="E126" s="0">
-        <v>32244056</v>
+        <v>57048072</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>DANG THI THANH XUAN</t>
+          <t>TON NU THUY MY</t>
         </is>
       </c>
       <c r="G126" s="0">
-        <v>32244056</v>
+        <v>57048072</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2300266</t>
+          <t>2259440</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PHUNG TRUNG QUAN &amp; NGUYEN THI TUYET</t>
+          <t>TON NU THUY MY &amp; NGUYEN QUOC HUNG</t>
         </is>
       </c>
       <c r="C127" s="0">
-        <v>81241468</v>
+        <v>38174529</v>
       </c>
       <c r="D127" s="0">
-        <v>6922175</v>
+        <v>1908726</v>
       </c>
       <c r="E127" s="0">
-        <v>74319293</v>
+        <v>36265803</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>PHUNG TRUNG QUAN</t>
+          <t>TON NU THUY MY</t>
         </is>
       </c>
       <c r="G127" s="0">
-        <v>74319293</v>
+        <v>36265803</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2300266</t>
+          <t>2266945</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PHUNG TRUNG QUAN &amp; NGUYEN THI TUYET</t>
+          <t>NGUYEN MANH HUNG &amp; NGUYEN THI THAO NGA</t>
         </is>
       </c>
       <c r="C128" s="0">
-        <v>73406190</v>
+        <v>99710129</v>
       </c>
       <c r="D128" s="0">
-        <v>3670309</v>
+        <v>7152187</v>
       </c>
       <c r="E128" s="0">
-        <v>69735881</v>
+        <v>92557942</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>PHUNG TRUNG QUAN</t>
+          <t>NGUYEN THI THAO NGA</t>
         </is>
       </c>
       <c r="G128" s="0">
-        <v>69735881</v>
+        <v>92557942</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2300551</t>
+          <t>2266945</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>QUACH SIEU NEN &amp; LE VAN CANH</t>
+          <t>NGUYEN MANH HUNG &amp; NGUYEN THI THAO NGA</t>
         </is>
       </c>
       <c r="C129" s="0">
-        <v>40703394</v>
+        <v>53868867</v>
       </c>
       <c r="D129" s="0">
-        <v>6150949</v>
+        <v>2693443</v>
       </c>
       <c r="E129" s="0">
-        <v>34552445</v>
+        <v>51175424</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>LE VAN CANH</t>
+          <t>NGUYEN THI THAO NGA</t>
         </is>
       </c>
       <c r="G129" s="0">
-        <v>34552445</v>
+        <v>51175424</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -4738,132 +4738,132 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2301540</t>
+          <t>2272295</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>LE THI NGOC DUNG &amp; HOANG MAI HUNG</t>
+          <t>MAI THI HOANG TUYET &amp; HOANG SY QUANG</t>
         </is>
       </c>
       <c r="C130" s="0">
-        <v>72151575</v>
+        <v>42947817</v>
       </c>
       <c r="D130" s="0">
-        <v>6758789</v>
+        <v>5829212</v>
       </c>
       <c r="E130" s="0">
-        <v>65392786</v>
+        <v>37118605</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>LE THI NGOC DUNG</t>
+          <t>MAI THI HOANG TUYET</t>
         </is>
       </c>
       <c r="G130" s="0">
-        <v>65392786</v>
+        <v>37118605</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2301540</t>
+          <t>2277158</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>LE THI NGOC DUNG &amp; HOANG MAI HUNG</t>
+          <t>TRAN VAN TRI &amp; LE THI KIM LIEN</t>
         </is>
       </c>
       <c r="C131" s="0">
-        <v>78943919</v>
+        <v>118223977</v>
       </c>
       <c r="D131" s="0">
-        <v>3947196</v>
+        <v>5911199</v>
       </c>
       <c r="E131" s="0">
-        <v>74996723</v>
+        <v>112312778</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>LE THI NGOC DUNG</t>
+          <t>LE THI KIM LIEN</t>
         </is>
       </c>
       <c r="G131" s="0">
-        <v>74996723</v>
+        <v>112312778</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2335075</t>
+          <t>2277158</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NGUYEN THUY GIANG SINH &amp; HUYNH TAN PHUC</t>
+          <t>TRAN VAN TRI &amp; LE THI KIM LIEN</t>
         </is>
       </c>
       <c r="C132" s="0">
-        <v>86150145</v>
+        <v>116168060</v>
       </c>
       <c r="D132" s="0">
-        <v>7766016</v>
+        <v>5808403</v>
       </c>
       <c r="E132" s="0">
-        <v>78384129</v>
+        <v>110359657</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>NGUYEN THUY GIANG SINH</t>
+          <t>LE THI KIM LIEN</t>
         </is>
       </c>
       <c r="G132" s="0">
-        <v>78384129</v>
+        <v>110359657</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2335075</t>
+          <t>2277158</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NGUYEN THUY GIANG SINH &amp; HUYNH TAN PHUC</t>
+          <t>TRAN VAN TRI &amp; LE THI KIM LIEN</t>
         </is>
       </c>
       <c r="C133" s="0">
-        <v>61208480</v>
+        <v>118185064</v>
       </c>
       <c r="D133" s="0">
-        <v>3060424</v>
+        <v>5909253</v>
       </c>
       <c r="E133" s="0">
-        <v>58148056</v>
+        <v>112275811</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>NGUYEN THUY GIANG SINH</t>
+          <t>LE THI KIM LIEN</t>
         </is>
       </c>
       <c r="G133" s="0">
-        <v>58148056</v>
+        <v>112275811</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -4874,132 +4874,132 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2336086</t>
+          <t>2277963</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NGUYEN VAN CHUNG &amp; CA THI NHUNG</t>
+          <t>LE MINH LOC &amp; VO THI THU NGAN</t>
         </is>
       </c>
       <c r="C134" s="0">
-        <v>111685204</v>
+        <v>39108185</v>
       </c>
       <c r="D134" s="0">
-        <v>10577019</v>
+        <v>6338169</v>
       </c>
       <c r="E134" s="0">
-        <v>101108185</v>
+        <v>32770016</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>CA THI NHUNG</t>
+          <t>LE MINH LOC</t>
         </is>
       </c>
       <c r="G134" s="0">
-        <v>101108185</v>
+        <v>32770016</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2336086</t>
+          <t>2291306</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NGUYEN VAN CHUNG &amp; CA THI NHUNG</t>
+          <t>NGUYEN THI PHUONG &amp; NGUYEN VAN SON</t>
         </is>
       </c>
       <c r="C135" s="0">
-        <v>89460067</v>
+        <v>74266137</v>
       </c>
       <c r="D135" s="0">
-        <v>4473004</v>
+        <v>5584126</v>
       </c>
       <c r="E135" s="0">
-        <v>84987063</v>
+        <v>68682011</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>CA THI NHUNG</t>
+          <t>NGUYEN VAN SON</t>
         </is>
       </c>
       <c r="G135" s="0">
-        <v>84987063</v>
+        <v>68682011</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2341123</t>
+          <t>2291306</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRAN THI THAM &amp; HUYNH NHU TAN</t>
+          <t>NGUYEN THI PHUONG &amp; NGUYEN VAN SON</t>
         </is>
       </c>
       <c r="C136" s="0">
-        <v>63767969</v>
+        <v>53933153</v>
       </c>
       <c r="D136" s="0">
-        <v>5455161</v>
+        <v>2696657</v>
       </c>
       <c r="E136" s="0">
-        <v>58312808</v>
+        <v>51236496</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>TRAN THI THAM</t>
+          <t>NGUYEN VAN SON</t>
         </is>
       </c>
       <c r="G136" s="0">
-        <v>58312808</v>
+        <v>51236496</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2341123</t>
+          <t>2292825</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRAN THI THAM &amp; HUYNH NHU TAN</t>
+          <t>DANG THI THANH XUAN &amp; DOAN CANH TAM</t>
         </is>
       </c>
       <c r="C137" s="0">
-        <v>47578303</v>
+        <v>37536826</v>
       </c>
       <c r="D137" s="0">
-        <v>2378915</v>
+        <v>5292770</v>
       </c>
       <c r="E137" s="0">
-        <v>45199388</v>
+        <v>32244056</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>TRAN THI THAM</t>
+          <t>DANG THI THANH XUAN</t>
         </is>
       </c>
       <c r="G137" s="0">
-        <v>45199388</v>
+        <v>32244056</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
@@ -5010,30 +5010,30 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2348854</t>
+          <t>2300266</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NGUYEN THI HUONG LAN &amp; NGUYEN MINH CUONG</t>
+          <t>PHUNG TRUNG QUAN &amp; NGUYEN THI TUYET</t>
         </is>
       </c>
       <c r="C138" s="0">
-        <v>104942901</v>
+        <v>81241468</v>
       </c>
       <c r="D138" s="0">
-        <v>5247145</v>
+        <v>6922175</v>
       </c>
       <c r="E138" s="0">
-        <v>99695756</v>
+        <v>74319293</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>NGUYEN THI HUONG LAN</t>
+          <t>PHUNG TRUNG QUAN</t>
         </is>
       </c>
       <c r="G138" s="0">
-        <v>99695756</v>
+        <v>74319293</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -5044,30 +5044,30 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2348854</t>
+          <t>2300266</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NGUYEN THI HUONG LAN &amp; NGUYEN MINH CUONG</t>
+          <t>PHUNG TRUNG QUAN &amp; NGUYEN THI TUYET</t>
         </is>
       </c>
       <c r="C139" s="0">
-        <v>111072047</v>
+        <v>73406190</v>
       </c>
       <c r="D139" s="0">
-        <v>5553602</v>
+        <v>3670309</v>
       </c>
       <c r="E139" s="0">
-        <v>105518445</v>
+        <v>69735881</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>NGUYEN THI HUONG LAN</t>
+          <t>PHUNG TRUNG QUAN</t>
         </is>
       </c>
       <c r="G139" s="0">
-        <v>105518445</v>
+        <v>69735881</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -5078,302 +5078,302 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2350738</t>
+          <t>2300551</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DANG QUOC HUNG &amp; NGUYEN THI CAM TU</t>
+          <t>QUACH SIEU NEN &amp; LE VAN CANH</t>
         </is>
       </c>
       <c r="C140" s="0">
-        <v>146424561</v>
+        <v>40703394</v>
       </c>
       <c r="D140" s="0">
-        <v>7321228</v>
+        <v>6150949</v>
       </c>
       <c r="E140" s="0">
-        <v>139103333</v>
+        <v>34552445</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>NGUYEN THI CAM TU</t>
+          <t>LE VAN CANH</t>
         </is>
       </c>
       <c r="G140" s="0">
-        <v>139103333</v>
+        <v>34552445</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2350738</t>
+          <t>2301540</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DANG QUOC HUNG &amp; NGUYEN THI CAM TU</t>
+          <t>LE THI NGOC DUNG &amp; HOANG MAI HUNG</t>
         </is>
       </c>
       <c r="C141" s="0">
-        <v>126506706</v>
+        <v>72151575</v>
       </c>
       <c r="D141" s="0">
-        <v>6325335</v>
+        <v>6758789</v>
       </c>
       <c r="E141" s="0">
-        <v>120181371</v>
+        <v>65392786</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>NGUYEN THI CAM TU</t>
+          <t>LE THI NGOC DUNG</t>
         </is>
       </c>
       <c r="G141" s="0">
-        <v>120181371</v>
+        <v>65392786</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2382480</t>
+          <t>2301540</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>LE THANH BINH &amp; NGUYEN MINH THAO</t>
+          <t>LE THI NGOC DUNG &amp; HOANG MAI HUNG</t>
         </is>
       </c>
       <c r="C142" s="0">
-        <v>75668399</v>
+        <v>78943919</v>
       </c>
       <c r="D142" s="0">
-        <v>7198556</v>
+        <v>3947196</v>
       </c>
       <c r="E142" s="0">
-        <v>68469843</v>
+        <v>74996723</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>LE THANH BINH</t>
+          <t>LE THI NGOC DUNG</t>
         </is>
       </c>
       <c r="G142" s="0">
-        <v>68469843</v>
+        <v>74996723</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2382480</t>
+          <t>2335075</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>LE THANH BINH &amp; NGUYEN MINH THAO</t>
+          <t>NGUYEN THUY GIANG SINH &amp; HUYNH TAN PHUC</t>
         </is>
       </c>
       <c r="C143" s="0">
-        <v>75670940</v>
+        <v>86150145</v>
       </c>
       <c r="D143" s="0">
-        <v>3783547</v>
+        <v>7766016</v>
       </c>
       <c r="E143" s="0">
-        <v>71887393</v>
+        <v>78384129</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>LE THANH BINH</t>
+          <t>NGUYEN THUY GIANG SINH</t>
         </is>
       </c>
       <c r="G143" s="0">
-        <v>71887393</v>
+        <v>78384129</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2412029</t>
+          <t>2335075</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NGUYEN THI THU THUY &amp; TRAN NGUYEN VINH MINH</t>
+          <t>NGUYEN THUY GIANG SINH &amp; HUYNH TAN PHUC</t>
         </is>
       </c>
       <c r="C144" s="0">
-        <v>128969449</v>
+        <v>61208480</v>
       </c>
       <c r="D144" s="0">
-        <v>7178287</v>
+        <v>3060424</v>
       </c>
       <c r="E144" s="0">
-        <v>121791162</v>
+        <v>58148056</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>TRAN NGUYEN VINH MINH</t>
+          <t>NGUYEN THUY GIANG SINH</t>
         </is>
       </c>
       <c r="G144" s="0">
-        <v>121791162</v>
+        <v>58148056</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2412029</t>
+          <t>2336086</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NGUYEN THI THU THUY &amp; TRAN NGUYEN VINH MINH</t>
+          <t>NGUYEN VAN CHUNG &amp; CA THI NHUNG</t>
         </is>
       </c>
       <c r="C145" s="0">
-        <v>71935133</v>
+        <v>111685204</v>
       </c>
       <c r="D145" s="0">
-        <v>3596756</v>
+        <v>10577019</v>
       </c>
       <c r="E145" s="0">
-        <v>68338377</v>
+        <v>101108185</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>TRAN NGUYEN VINH MINH</t>
+          <t>CA THI NHUNG</t>
         </is>
       </c>
       <c r="G145" s="0">
-        <v>68338377</v>
+        <v>101108185</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2417467</t>
+          <t>2336086</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>VO NGHIEP DOAN &amp; NGUYEN THI THE</t>
+          <t>NGUYEN VAN CHUNG &amp; CA THI NHUNG</t>
         </is>
       </c>
       <c r="C146" s="0">
-        <v>55859998</v>
+        <v>89460067</v>
       </c>
       <c r="D146" s="0">
-        <v>5325759</v>
+        <v>4473004</v>
       </c>
       <c r="E146" s="0">
-        <v>50534239</v>
+        <v>84987063</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>VO NGHIEP DOAN</t>
+          <t>CA THI NHUNG</t>
         </is>
       </c>
       <c r="G146" s="0">
-        <v>50534239</v>
+        <v>84987063</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2417467</t>
+          <t>2341123</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>VO NGHIEP DOAN &amp; NGUYEN THI THE</t>
+          <t>TRAN THI THAM &amp; HUYNH NHU TAN</t>
         </is>
       </c>
       <c r="C147" s="0">
-        <v>54949650</v>
+        <v>63767969</v>
       </c>
       <c r="D147" s="0">
-        <v>2747482</v>
+        <v>5455161</v>
       </c>
       <c r="E147" s="0">
-        <v>52202168</v>
+        <v>58312808</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>VO NGHIEP DOAN</t>
+          <t>TRAN THI THAM</t>
         </is>
       </c>
       <c r="G147" s="0">
-        <v>52202168</v>
+        <v>58312808</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2422951</t>
+          <t>2341123</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BUI QUANG DUNG &amp; VU THI TY</t>
+          <t>TRAN THI THAM &amp; HUYNH NHU TAN</t>
         </is>
       </c>
       <c r="C148" s="0">
-        <v>41660791</v>
+        <v>47578303</v>
       </c>
       <c r="D148" s="0">
-        <v>5990481</v>
+        <v>2378915</v>
       </c>
       <c r="E148" s="0">
-        <v>35670310</v>
+        <v>45199388</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>BUI QUANG DUNG</t>
+          <t>TRAN THI THAM</t>
         </is>
       </c>
       <c r="G148" s="0">
-        <v>35670310</v>
+        <v>45199388</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -5384,200 +5384,200 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2440791</t>
+          <t>2348854</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NGUYEN THI THUY DUONG &amp; KHUONG GAP LOI</t>
+          <t>NGUYEN THI HUONG LAN &amp; NGUYEN MINH CUONG</t>
         </is>
       </c>
       <c r="C149" s="0">
-        <v>35665781</v>
+        <v>104942901</v>
       </c>
       <c r="D149" s="0">
-        <v>6166979</v>
+        <v>5247145</v>
       </c>
       <c r="E149" s="0">
-        <v>29498802</v>
+        <v>99695756</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>KHUONG GAP LOI</t>
+          <t>NGUYEN THI HUONG LAN</t>
         </is>
       </c>
       <c r="G149" s="0">
-        <v>29498802</v>
+        <v>99695756</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2452229</t>
+          <t>2348854</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>LE KIM PHUONG &amp; NGUYEN DINH THANG</t>
+          <t>NGUYEN THI HUONG LAN &amp; NGUYEN MINH CUONG</t>
         </is>
       </c>
       <c r="C150" s="0">
-        <v>48449994</v>
+        <v>103623436</v>
       </c>
       <c r="D150" s="0">
-        <v>7254289</v>
+        <v>5181172</v>
       </c>
       <c r="E150" s="0">
-        <v>41195705</v>
+        <v>98442264</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>LE KIM PHUONG</t>
+          <t>NGUYEN THI HUONG LAN</t>
         </is>
       </c>
       <c r="G150" s="0">
-        <v>41195705</v>
+        <v>98442264</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2452239</t>
+          <t>2348854</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DAO THUY HIEN &amp; LE TRONG DAI</t>
+          <t>NGUYEN THI HUONG LAN &amp; NGUYEN MINH CUONG</t>
         </is>
       </c>
       <c r="C151" s="0">
-        <v>187883513</v>
+        <v>111072047</v>
       </c>
       <c r="D151" s="0">
-        <v>9394176</v>
+        <v>5553602</v>
       </c>
       <c r="E151" s="0">
-        <v>178489337</v>
+        <v>105518445</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>DAO THUY HIEN</t>
+          <t>NGUYEN THI HUONG LAN</t>
         </is>
       </c>
       <c r="G151" s="0">
-        <v>178489337</v>
+        <v>105518445</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2452239</t>
+          <t>2350738</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DAO THUY HIEN &amp; LE TRONG DAI</t>
+          <t>DANG QUOC HUNG &amp; NGUYEN THI CAM TU</t>
         </is>
       </c>
       <c r="C152" s="0">
-        <v>210873525</v>
+        <v>146424561</v>
       </c>
       <c r="D152" s="0">
-        <v>10543676</v>
+        <v>7321228</v>
       </c>
       <c r="E152" s="0">
-        <v>200329849</v>
+        <v>139103333</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>DAO THUY HIEN</t>
+          <t>NGUYEN THI CAM TU</t>
         </is>
       </c>
       <c r="G152" s="0">
-        <v>200329849</v>
+        <v>139103333</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2452384</t>
+          <t>2350738</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>LAI THI BANG TAM &amp; DO KIM HOAN</t>
+          <t>DANG QUOC HUNG &amp; NGUYEN THI CAM TU</t>
         </is>
       </c>
       <c r="C153" s="0">
-        <v>34861393</v>
+        <v>115519618</v>
       </c>
       <c r="D153" s="0">
-        <v>5442229</v>
+        <v>5775981</v>
       </c>
       <c r="E153" s="0">
-        <v>29419164</v>
+        <v>109743637</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>LAI THI BANG TAM</t>
+          <t>NGUYEN THI CAM TU</t>
         </is>
       </c>
       <c r="G153" s="0">
-        <v>29419164</v>
+        <v>109743637</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2504619</t>
+          <t>2350738</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TRAN THI GIANG &amp; LO LAM NGU</t>
+          <t>DANG QUOC HUNG &amp; NGUYEN THI CAM TU</t>
         </is>
       </c>
       <c r="C154" s="0">
-        <v>34302275</v>
+        <v>126506706</v>
       </c>
       <c r="D154" s="0">
-        <v>5981798</v>
+        <v>6325335</v>
       </c>
       <c r="E154" s="0">
-        <v>28320477</v>
+        <v>120181371</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>TRAN THI GIANG</t>
+          <t>NGUYEN THI CAM TU</t>
         </is>
       </c>
       <c r="G154" s="0">
-        <v>28320477</v>
+        <v>120181371</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -5588,64 +5588,64 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2511285</t>
+          <t>2382480</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DAO THI TIEN &amp; NGUYEN HONG PHUONG</t>
+          <t>LE THANH BINH &amp; NGUYEN MINH THAO</t>
         </is>
       </c>
       <c r="C155" s="0">
-        <v>28591611</v>
+        <v>75668399</v>
       </c>
       <c r="D155" s="0">
-        <v>6374379</v>
+        <v>7198556</v>
       </c>
       <c r="E155" s="0">
-        <v>22217232</v>
+        <v>68469843</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>DAO THI TIEN</t>
+          <t>LE THANH BINH</t>
         </is>
       </c>
       <c r="G155" s="0">
-        <v>22217232</v>
+        <v>68469843</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2519152</t>
+          <t>2382480</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRAN LE KHUYEN &amp; TRAN MANH HUNG</t>
+          <t>LE THANH BINH &amp; NGUYEN MINH THAO</t>
         </is>
       </c>
       <c r="C156" s="0">
-        <v>29849502</v>
+        <v>75670940</v>
       </c>
       <c r="D156" s="0">
-        <v>5932587</v>
+        <v>3783547</v>
       </c>
       <c r="E156" s="0">
-        <v>23916915</v>
+        <v>71887393</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>TRAN MANH HUNG</t>
+          <t>LE THANH BINH</t>
         </is>
       </c>
       <c r="G156" s="0">
-        <v>23916915</v>
+        <v>71887393</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -5656,132 +5656,132 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2573880</t>
+          <t>2412029</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRAN THI THEM &amp; TRINH HONG THAI</t>
+          <t>NGUYEN THI THU THUY &amp; TRAN NGUYEN VINH MINH</t>
         </is>
       </c>
       <c r="C157" s="0">
-        <v>27732420</v>
+        <v>128969449</v>
       </c>
       <c r="D157" s="0">
-        <v>5046261</v>
+        <v>7178287</v>
       </c>
       <c r="E157" s="0">
-        <v>22686159</v>
+        <v>121791162</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>TRINH HONG THAI</t>
+          <t>TRAN NGUYEN VINH MINH</t>
         </is>
       </c>
       <c r="G157" s="0">
-        <v>22686159</v>
+        <v>121791162</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2589783</t>
+          <t>2412029</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NGUYEN THANH LIEM &amp; PHAM THI THANH HUONG</t>
+          <t>NGUYEN THI THU THUY &amp; TRAN NGUYEN VINH MINH</t>
         </is>
       </c>
       <c r="C158" s="0">
-        <v>90720053</v>
+        <v>71935133</v>
       </c>
       <c r="D158" s="0">
-        <v>7146640</v>
+        <v>3596756</v>
       </c>
       <c r="E158" s="0">
-        <v>83573413</v>
+        <v>68338377</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>NGUYEN THANH LIEM</t>
+          <t>TRAN NGUYEN VINH MINH</t>
         </is>
       </c>
       <c r="G158" s="0">
-        <v>83573413</v>
+        <v>68338377</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2589783</t>
+          <t>2417467</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NGUYEN THANH LIEM &amp; PHAM THI THANH HUONG</t>
+          <t>VO NGHIEP DOAN &amp; NGUYEN THI THE</t>
         </is>
       </c>
       <c r="C159" s="0">
-        <v>83102405</v>
+        <v>55859998</v>
       </c>
       <c r="D159" s="0">
-        <v>4155121</v>
+        <v>5325759</v>
       </c>
       <c r="E159" s="0">
-        <v>78947284</v>
+        <v>50534239</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>NGUYEN THANH LIEM</t>
+          <t>VO NGHIEP DOAN</t>
         </is>
       </c>
       <c r="G159" s="0">
-        <v>78947284</v>
+        <v>50534239</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2597854</t>
+          <t>2417467</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NGUYEN THI HA &amp; NGUYEN BA HA</t>
+          <t>VO NGHIEP DOAN &amp; NGUYEN THI THE</t>
         </is>
       </c>
       <c r="C160" s="0">
-        <v>29392533</v>
+        <v>54949650</v>
       </c>
       <c r="D160" s="0">
-        <v>5638038</v>
+        <v>2747482</v>
       </c>
       <c r="E160" s="0">
-        <v>23754495</v>
+        <v>52202168</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>NGUYEN THI HA</t>
+          <t>VO NGHIEP DOAN</t>
         </is>
       </c>
       <c r="G160" s="0">
-        <v>23754495</v>
+        <v>52202168</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -5792,30 +5792,30 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2597914</t>
+          <t>2422951</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PHAM NGOC HA &amp; NGUYEN THI MAI TRANG</t>
+          <t>BUI QUANG DUNG &amp; VU THI TY</t>
         </is>
       </c>
       <c r="C161" s="0">
-        <v>32708362</v>
+        <v>41660791</v>
       </c>
       <c r="D161" s="0">
-        <v>5144916</v>
+        <v>5990481</v>
       </c>
       <c r="E161" s="0">
-        <v>27563446</v>
+        <v>35670310</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>NGUYEN THI MAI TRANG</t>
+          <t>BUI QUANG DUNG</t>
         </is>
       </c>
       <c r="G161" s="0">
-        <v>27563446</v>
+        <v>35670310</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -5826,30 +5826,30 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2609061</t>
+          <t>2440791</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>VU DINH KHOI &amp; NGUYEN THI HUYEN TRAN</t>
+          <t>NGUYEN THI THUY DUONG &amp; KHUONG GAP LOI</t>
         </is>
       </c>
       <c r="C162" s="0">
-        <v>40002344</v>
+        <v>35665781</v>
       </c>
       <c r="D162" s="0">
-        <v>5863542</v>
+        <v>6166979</v>
       </c>
       <c r="E162" s="0">
-        <v>34138802</v>
+        <v>29498802</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>NGUYEN THI HUYEN TRAN</t>
+          <t>KHUONG GAP LOI</t>
         </is>
       </c>
       <c r="G162" s="0">
-        <v>34138802</v>
+        <v>29498802</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -5860,166 +5860,166 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2625697</t>
+          <t>2452229</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRINH THI HANG &amp; LE TRUNG HUAN</t>
+          <t>LE KIM PHUONG &amp; NGUYEN DINH THANG</t>
         </is>
       </c>
       <c r="C163" s="0">
-        <v>79140111</v>
+        <v>48449994</v>
       </c>
       <c r="D163" s="0">
-        <v>5330839</v>
+        <v>7254289</v>
       </c>
       <c r="E163" s="0">
-        <v>73809272</v>
+        <v>41195705</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>TRINH THI HANG</t>
+          <t>LE KIM PHUONG</t>
         </is>
       </c>
       <c r="G163" s="0">
-        <v>73809272</v>
+        <v>41195705</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2625697</t>
+          <t>2452239</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRINH THI HANG &amp; LE TRUNG HUAN</t>
+          <t>DAO THUY HIEN &amp; LE TRONG DAI</t>
         </is>
       </c>
       <c r="C164" s="0">
-        <v>40241767</v>
+        <v>187883513</v>
       </c>
       <c r="D164" s="0">
-        <v>2012088</v>
+        <v>9394176</v>
       </c>
       <c r="E164" s="0">
-        <v>38229679</v>
+        <v>178489337</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>TRINH THI HANG</t>
+          <t>DAO THUY HIEN</t>
         </is>
       </c>
       <c r="G164" s="0">
-        <v>38229679</v>
+        <v>178489337</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2627745</t>
+          <t>2452239</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>VU THI DUYEN &amp; LE HUU DANH</t>
+          <t>DAO THUY HIEN &amp; LE TRONG DAI</t>
         </is>
       </c>
       <c r="C165" s="0">
-        <v>37169829</v>
+        <v>174918778</v>
       </c>
       <c r="D165" s="0">
-        <v>5899758</v>
+        <v>8745939</v>
       </c>
       <c r="E165" s="0">
-        <v>31270071</v>
+        <v>166172839</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>VU THI DUYEN</t>
+          <t>DAO THUY HIEN</t>
         </is>
       </c>
       <c r="G165" s="0">
-        <v>31270071</v>
+        <v>166172839</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2634091</t>
+          <t>2452239</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>VO THI BICH LIEN &amp; NGUYEN ANH KHOA</t>
+          <t>DAO THUY HIEN &amp; LE TRONG DAI</t>
         </is>
       </c>
       <c r="C166" s="0">
-        <v>68717785</v>
+        <v>210873525</v>
       </c>
       <c r="D166" s="0">
-        <v>5904782</v>
+        <v>10543676</v>
       </c>
       <c r="E166" s="0">
-        <v>62813003</v>
+        <v>200329849</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>VO THI BICH LIEN</t>
+          <t>DAO THUY HIEN</t>
         </is>
       </c>
       <c r="G166" s="0">
-        <v>62813003</v>
+        <v>200329849</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2634091</t>
+          <t>2452384</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>VO THI BICH LIEN &amp; NGUYEN ANH KHOA</t>
+          <t>LAI THI BANG TAM &amp; DO KIM HOAN</t>
         </is>
       </c>
       <c r="C167" s="0">
-        <v>52327577</v>
+        <v>34861393</v>
       </c>
       <c r="D167" s="0">
-        <v>2616379</v>
+        <v>5442229</v>
       </c>
       <c r="E167" s="0">
-        <v>49711198</v>
+        <v>29419164</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>VO THI BICH LIEN</t>
+          <t>LAI THI BANG TAM</t>
         </is>
       </c>
       <c r="G167" s="0">
-        <v>49711198</v>
+        <v>29419164</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -6030,30 +6030,30 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2637557</t>
+          <t>2504619</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NGUYEN THI HAI YEN &amp; PHAM QUANG HUNG</t>
+          <t>TRAN THI GIANG &amp; LO LAM NGU</t>
         </is>
       </c>
       <c r="C168" s="0">
-        <v>47542079</v>
+        <v>34302275</v>
       </c>
       <c r="D168" s="0">
-        <v>5241390</v>
+        <v>5981798</v>
       </c>
       <c r="E168" s="0">
-        <v>42300689</v>
+        <v>28320477</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>NGUYEN THI HAI YEN</t>
+          <t>TRAN THI GIANG</t>
         </is>
       </c>
       <c r="G168" s="0">
-        <v>42300689</v>
+        <v>28320477</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -6064,30 +6064,30 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2638192</t>
+          <t>2511285</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>VO THI THANH LICH &amp; NGUYEN MINH SON</t>
+          <t>DAO THI TIEN &amp; NGUYEN HONG PHUONG</t>
         </is>
       </c>
       <c r="C169" s="0">
-        <v>45124659</v>
+        <v>28591611</v>
       </c>
       <c r="D169" s="0">
-        <v>5851443</v>
+        <v>6374379</v>
       </c>
       <c r="E169" s="0">
-        <v>39273216</v>
+        <v>22217232</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>VO THI THANH LICH</t>
+          <t>DAO THI TIEN</t>
         </is>
       </c>
       <c r="G169" s="0">
-        <v>39273216</v>
+        <v>22217232</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -6098,64 +6098,64 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2644466</t>
+          <t>2519152</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>LE ANH PHAN &amp; PHAM KIEU MY</t>
+          <t>TRAN LE KHUYEN &amp; TRAN MANH HUNG</t>
         </is>
       </c>
       <c r="C170" s="0">
-        <v>96407682</v>
+        <v>29849502</v>
       </c>
       <c r="D170" s="0">
-        <v>9170012</v>
+        <v>5932587</v>
       </c>
       <c r="E170" s="0">
-        <v>87237670</v>
+        <v>23916915</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>PHAM KIEU MY</t>
+          <t>TRAN MANH HUNG</t>
         </is>
       </c>
       <c r="G170" s="0">
-        <v>87237670</v>
+        <v>23916915</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2644466</t>
+          <t>2573880</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>LE ANH PHAN &amp; PHAM KIEU MY</t>
+          <t>TRAN THI THEM &amp; TRINH HONG THAI</t>
         </is>
       </c>
       <c r="C171" s="0">
-        <v>83644572</v>
+        <v>27732420</v>
       </c>
       <c r="D171" s="0">
-        <v>4182228</v>
+        <v>5046261</v>
       </c>
       <c r="E171" s="0">
-        <v>79462344</v>
+        <v>22686159</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>PHAM KIEU MY</t>
+          <t>TRINH HONG THAI</t>
         </is>
       </c>
       <c r="G171" s="0">
-        <v>79462344</v>
+        <v>22686159</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
@@ -6166,30 +6166,30 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2665065</t>
+          <t>2589783</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRINH THAI HUONG &amp; VOONG VINH LE</t>
+          <t>NGUYEN THANH LIEM &amp; PHAM THI THANH HUONG</t>
         </is>
       </c>
       <c r="C172" s="0">
-        <v>135591127</v>
+        <v>90720053</v>
       </c>
       <c r="D172" s="0">
-        <v>6779556</v>
+        <v>7146640</v>
       </c>
       <c r="E172" s="0">
-        <v>128811571</v>
+        <v>83573413</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>TRINH THAI HUONG</t>
+          <t>NGUYEN THANH LIEM</t>
         </is>
       </c>
       <c r="G172" s="0">
-        <v>128811571</v>
+        <v>83573413</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
@@ -6200,30 +6200,30 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2665065</t>
+          <t>2589783</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRINH THAI HUONG &amp; VOONG VINH LE</t>
+          <t>NGUYEN THANH LIEM &amp; PHAM THI THANH HUONG</t>
         </is>
       </c>
       <c r="C173" s="0">
-        <v>116852860</v>
+        <v>83102405</v>
       </c>
       <c r="D173" s="0">
-        <v>5842643</v>
+        <v>4155121</v>
       </c>
       <c r="E173" s="0">
-        <v>111010217</v>
+        <v>78947284</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>TRINH THAI HUONG</t>
+          <t>NGUYEN THANH LIEM</t>
         </is>
       </c>
       <c r="G173" s="0">
-        <v>111010217</v>
+        <v>78947284</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
@@ -6234,30 +6234,30 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2679346</t>
+          <t>2597854</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRAN THI KIM NGAN &amp; DINH QUY GIANG</t>
+          <t>NGUYEN THI HA &amp; NGUYEN BA HA</t>
         </is>
       </c>
       <c r="C174" s="0">
-        <v>36322123</v>
+        <v>29392533</v>
       </c>
       <c r="D174" s="0">
-        <v>5597801</v>
+        <v>5638038</v>
       </c>
       <c r="E174" s="0">
-        <v>30724322</v>
+        <v>23754495</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>TRAN THI KIM NGAN</t>
+          <t>NGUYEN THI HA</t>
         </is>
       </c>
       <c r="G174" s="0">
-        <v>30724322</v>
+        <v>23754495</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
@@ -6268,64 +6268,64 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2734052</t>
+          <t>2597914</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>VO TAN DUNG &amp; NGUYEN THI NGOC AN</t>
+          <t>PHAM NGOC HA &amp; NGUYEN THI MAI TRANG</t>
         </is>
       </c>
       <c r="C175" s="0">
-        <v>100180819</v>
+        <v>32708362</v>
       </c>
       <c r="D175" s="0">
-        <v>8746212</v>
+        <v>5144916</v>
       </c>
       <c r="E175" s="0">
-        <v>91434607</v>
+        <v>27563446</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>NGUYEN THI NGOC AN</t>
+          <t>NGUYEN THI MAI TRANG</t>
         </is>
       </c>
       <c r="G175" s="0">
-        <v>91434607</v>
+        <v>27563446</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2734052</t>
+          <t>2609061</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>VO TAN DUNG &amp; NGUYEN THI NGOC AN</t>
+          <t>VU DINH KHOI &amp; NGUYEN THI HUYEN TRAN</t>
         </is>
       </c>
       <c r="C176" s="0">
-        <v>67233690</v>
+        <v>40002344</v>
       </c>
       <c r="D176" s="0">
-        <v>3361685</v>
+        <v>5863542</v>
       </c>
       <c r="E176" s="0">
-        <v>63872005</v>
+        <v>34138802</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>NGUYEN THI NGOC AN</t>
+          <t>NGUYEN THI HUYEN TRAN</t>
         </is>
       </c>
       <c r="G176" s="0">
-        <v>63872005</v>
+        <v>34138802</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
@@ -6336,98 +6336,98 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2748988</t>
+          <t>2625697</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PHAM THI THU HA &amp; NGUYEN MAU DUNG</t>
+          <t>TRINH THI HANG &amp; LE TRUNG HUAN</t>
         </is>
       </c>
       <c r="C177" s="0">
-        <v>29869435</v>
+        <v>79140111</v>
       </c>
       <c r="D177" s="0">
-        <v>5419941</v>
+        <v>5330839</v>
       </c>
       <c r="E177" s="0">
-        <v>24449494</v>
+        <v>73809272</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>PHAM THI THU HA</t>
+          <t>TRINH THI HANG</t>
         </is>
       </c>
       <c r="G177" s="0">
-        <v>24449494</v>
+        <v>73809272</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2758034</t>
+          <t>2625697</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PHAN ANH TUAN &amp; TRAN THI THANH VY</t>
+          <t>TRINH THI HANG &amp; LE TRUNG HUAN</t>
         </is>
       </c>
       <c r="C178" s="0">
-        <v>97723311</v>
+        <v>40241767</v>
       </c>
       <c r="D178" s="0">
-        <v>8638147</v>
+        <v>2012088</v>
       </c>
       <c r="E178" s="0">
-        <v>89085164</v>
+        <v>38229679</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>PHAN ANH TUAN</t>
+          <t>TRINH THI HANG</t>
         </is>
       </c>
       <c r="G178" s="0">
-        <v>89085164</v>
+        <v>38229679</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2758034</t>
+          <t>2627745</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PHAN ANH TUAN &amp; TRAN THI THANH VY</t>
+          <t>VU THI DUYEN &amp; LE HUU DANH</t>
         </is>
       </c>
       <c r="C179" s="0">
-        <v>72659545</v>
+        <v>37169829</v>
       </c>
       <c r="D179" s="0">
-        <v>3632977</v>
+        <v>5899758</v>
       </c>
       <c r="E179" s="0">
-        <v>69026568</v>
+        <v>31270071</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>PHAN ANH TUAN</t>
+          <t>VU THI DUYEN</t>
         </is>
       </c>
       <c r="G179" s="0">
-        <v>69026568</v>
+        <v>31270071</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
@@ -6438,30 +6438,30 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2765442</t>
+          <t>2634091</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NGUYEN XUAN HOAI &amp; DAU THI BICH HANG</t>
+          <t>VO THI BICH LIEN &amp; NGUYEN ANH KHOA</t>
         </is>
       </c>
       <c r="C180" s="0">
-        <v>65593892</v>
+        <v>68717785</v>
       </c>
       <c r="D180" s="0">
-        <v>6415553</v>
+        <v>5904782</v>
       </c>
       <c r="E180" s="0">
-        <v>59178339</v>
+        <v>62813003</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>NGUYEN XUAN HOAI</t>
+          <t>VO THI BICH LIEN</t>
         </is>
       </c>
       <c r="G180" s="0">
-        <v>59178339</v>
+        <v>62813003</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
@@ -6472,30 +6472,30 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2765442</t>
+          <t>2634091</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NGUYEN XUAN HOAI &amp; DAU THI BICH HANG</t>
+          <t>VO THI BICH LIEN &amp; NGUYEN ANH KHOA</t>
         </is>
       </c>
       <c r="C181" s="0">
-        <v>70740864</v>
+        <v>52327577</v>
       </c>
       <c r="D181" s="0">
-        <v>3537044</v>
+        <v>2616379</v>
       </c>
       <c r="E181" s="0">
-        <v>67203820</v>
+        <v>49711198</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>NGUYEN XUAN HOAI</t>
+          <t>VO THI BICH LIEN</t>
         </is>
       </c>
       <c r="G181" s="0">
-        <v>67203820</v>
+        <v>49711198</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -6506,64 +6506,64 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2784849</t>
+          <t>2637557</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DANG THI THUY HANG &amp; NGUYEN KIM TAM</t>
+          <t>NGUYEN THI HAI YEN &amp; PHAM QUANG HUNG</t>
         </is>
       </c>
       <c r="C182" s="0">
-        <v>122396760</v>
+        <v>47542079</v>
       </c>
       <c r="D182" s="0">
-        <v>6119838</v>
+        <v>5241390</v>
       </c>
       <c r="E182" s="0">
-        <v>116276922</v>
+        <v>42300689</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>DANG THI THUY HANG</t>
+          <t>NGUYEN THI HAI YEN</t>
         </is>
       </c>
       <c r="G182" s="0">
-        <v>116276922</v>
+        <v>42300689</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2784849</t>
+          <t>2638192</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DANG THI THUY HANG &amp; NGUYEN KIM TAM</t>
+          <t>VO THI THANH LICH &amp; NGUYEN MINH SON</t>
         </is>
       </c>
       <c r="C183" s="0">
-        <v>86331031</v>
+        <v>45124659</v>
       </c>
       <c r="D183" s="0">
-        <v>4316552</v>
+        <v>5851443</v>
       </c>
       <c r="E183" s="0">
-        <v>82014479</v>
+        <v>39273216</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>DANG THI THUY HANG</t>
+          <t>VO THI THANH LICH</t>
         </is>
       </c>
       <c r="G183" s="0">
-        <v>82014479</v>
+        <v>39273216</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -6574,64 +6574,64 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2790461</t>
+          <t>2644466</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NGUYEN NGOC TIEN &amp; PHAM CHI BINH</t>
+          <t>LE ANH PHAN &amp; PHAM KIEU MY</t>
         </is>
       </c>
       <c r="C184" s="0">
-        <v>46656591</v>
+        <v>96407682</v>
       </c>
       <c r="D184" s="0">
-        <v>6966732</v>
+        <v>9170012</v>
       </c>
       <c r="E184" s="0">
-        <v>39689859</v>
+        <v>87237670</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>NGUYEN NGOC TIEN</t>
+          <t>PHAM KIEU MY</t>
         </is>
       </c>
       <c r="G184" s="0">
-        <v>39689859</v>
+        <v>87237670</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2791505</t>
+          <t>2644466</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>HUYNH THI NGHIA &amp; DANG QUOC TRUNG</t>
+          <t>LE ANH PHAN &amp; PHAM KIEU MY</t>
         </is>
       </c>
       <c r="C185" s="0">
-        <v>48276144</v>
+        <v>83644572</v>
       </c>
       <c r="D185" s="0">
-        <v>6392816</v>
+        <v>4182228</v>
       </c>
       <c r="E185" s="0">
-        <v>41883328</v>
+        <v>79462344</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>HUYNH THI NGHIA</t>
+          <t>PHAM KIEU MY</t>
         </is>
       </c>
       <c r="G185" s="0">
-        <v>41883328</v>
+        <v>79462344</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -6642,132 +6642,132 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2806845</t>
+          <t>2665065</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NGUYEN NGOC TUYEN &amp; HUYNH PHU HAI</t>
+          <t>TRINH THAI HUONG &amp; VOONG VINH LE</t>
         </is>
       </c>
       <c r="C186" s="0">
-        <v>32577670</v>
+        <v>135591127</v>
       </c>
       <c r="D186" s="0">
-        <v>5213358</v>
+        <v>6779556</v>
       </c>
       <c r="E186" s="0">
-        <v>27364312</v>
+        <v>128811571</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>NGUYEN NGOC TUYEN</t>
+          <t>TRINH THAI HUONG</t>
         </is>
       </c>
       <c r="G186" s="0">
-        <v>27364312</v>
+        <v>128811571</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2858068</t>
+          <t>2665065</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>HOANG NGOC VIET &amp; TRAN THINH QUYEN</t>
+          <t>TRINH THAI HUONG &amp; VOONG VINH LE</t>
         </is>
       </c>
       <c r="C187" s="0">
-        <v>63718319</v>
+        <v>119679936</v>
       </c>
       <c r="D187" s="0">
-        <v>7783876</v>
+        <v>5983997</v>
       </c>
       <c r="E187" s="0">
-        <v>55934443</v>
+        <v>113695939</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>TRAN THINH QUYEN</t>
+          <t>TRINH THAI HUONG</t>
         </is>
       </c>
       <c r="G187" s="0">
-        <v>55934443</v>
+        <v>113695939</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2910200</t>
+          <t>2665065</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NGUYEN THI MY TIEN &amp; VO DUC DUY</t>
+          <t>TRINH THAI HUONG &amp; VOONG VINH LE</t>
         </is>
       </c>
       <c r="C188" s="0">
-        <v>58480620</v>
+        <v>116852860</v>
       </c>
       <c r="D188" s="0">
-        <v>6078860</v>
+        <v>5842643</v>
       </c>
       <c r="E188" s="0">
-        <v>52401760</v>
+        <v>111010217</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>NGUYEN THI MY TIEN</t>
+          <t>TRINH THAI HUONG</t>
         </is>
       </c>
       <c r="G188" s="0">
-        <v>52401760</v>
+        <v>111010217</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2910200</t>
+          <t>2679346</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NGUYEN THI MY TIEN &amp; VO DUC DUY</t>
+          <t>TRAN THI KIM NGAN &amp; DINH QUY GIANG</t>
         </is>
       </c>
       <c r="C189" s="0">
-        <v>52341170</v>
+        <v>36322123</v>
       </c>
       <c r="D189" s="0">
-        <v>2617058</v>
+        <v>5597801</v>
       </c>
       <c r="E189" s="0">
-        <v>49724112</v>
+        <v>30724322</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>NGUYEN THI MY TIEN</t>
+          <t>TRAN THI KIM NGAN</t>
         </is>
       </c>
       <c r="G189" s="0">
-        <v>49724112</v>
+        <v>30724322</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
@@ -6778,98 +6778,98 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2962765</t>
+          <t>2734052</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MA NGOC THANG &amp; NGUYEN THI HOE</t>
+          <t>VO TAN DUNG &amp; NGUYEN THI NGOC AN</t>
         </is>
       </c>
       <c r="C190" s="0">
-        <v>36387840</v>
+        <v>100180819</v>
       </c>
       <c r="D190" s="0">
-        <v>5263470</v>
+        <v>8746212</v>
       </c>
       <c r="E190" s="0">
-        <v>31124370</v>
+        <v>91434607</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>NGUYEN THI HOE</t>
+          <t>NGUYEN THI NGOC AN</t>
         </is>
       </c>
       <c r="G190" s="0">
-        <v>31124370</v>
+        <v>91434607</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2969673</t>
+          <t>2734052</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>LAI THI THU XUAN &amp; NGUYEN MINH CHAU</t>
+          <t>VO TAN DUNG &amp; NGUYEN THI NGOC AN</t>
         </is>
       </c>
       <c r="C191" s="0">
-        <v>55320511</v>
+        <v>67233690</v>
       </c>
       <c r="D191" s="0">
-        <v>5308805</v>
+        <v>3361685</v>
       </c>
       <c r="E191" s="0">
-        <v>50011706</v>
+        <v>63872005</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>LAI THI THU XUAN</t>
+          <t>NGUYEN THI NGOC AN</t>
         </is>
       </c>
       <c r="G191" s="0">
-        <v>50011706</v>
+        <v>63872005</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2969673</t>
+          <t>2748988</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>LAI THI THU XUAN &amp; NGUYEN MINH CHAU</t>
+          <t>PHAM THI THU HA &amp; NGUYEN MAU DUNG</t>
         </is>
       </c>
       <c r="C192" s="0">
-        <v>40675765</v>
+        <v>29869435</v>
       </c>
       <c r="D192" s="0">
-        <v>2033788</v>
+        <v>5419941</v>
       </c>
       <c r="E192" s="0">
-        <v>38641977</v>
+        <v>24449494</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>LAI THI THU XUAN</t>
+          <t>PHAM THI THU HA</t>
         </is>
       </c>
       <c r="G192" s="0">
-        <v>38641977</v>
+        <v>24449494</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
@@ -6880,30 +6880,30 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2978686</t>
+          <t>2758034</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DOAN TIEN DUNG &amp; NGUYEN THI THU HANG</t>
+          <t>PHAN ANH TUAN &amp; TRAN THI THANH VY</t>
         </is>
       </c>
       <c r="C193" s="0">
-        <v>66362377</v>
+        <v>97723311</v>
       </c>
       <c r="D193" s="0">
-        <v>6370014</v>
+        <v>8638147</v>
       </c>
       <c r="E193" s="0">
-        <v>59992363</v>
+        <v>89085164</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>DOAN TIEN DUNG</t>
+          <t>PHAN ANH TUAN</t>
         </is>
       </c>
       <c r="G193" s="0">
-        <v>59992363</v>
+        <v>89085164</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
@@ -6914,30 +6914,30 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2978686</t>
+          <t>2758034</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DOAN TIEN DUNG &amp; NGUYEN THI THU HANG</t>
+          <t>PHAN ANH TUAN &amp; TRAN THI THANH VY</t>
         </is>
       </c>
       <c r="C194" s="0">
-        <v>62883493</v>
+        <v>72659545</v>
       </c>
       <c r="D194" s="0">
-        <v>3144175</v>
+        <v>3632977</v>
       </c>
       <c r="E194" s="0">
-        <v>59739318</v>
+        <v>69026568</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>DOAN TIEN DUNG</t>
+          <t>PHAN ANH TUAN</t>
         </is>
       </c>
       <c r="G194" s="0">
-        <v>59739318</v>
+        <v>69026568</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
@@ -6948,30 +6948,30 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2980511</t>
+          <t>2765442</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>LE THI HONG THUY &amp; PHAM VAN CHUONG</t>
+          <t>NGUYEN XUAN HOAI &amp; DAU THI BICH HANG</t>
         </is>
       </c>
       <c r="C195" s="0">
-        <v>79659178</v>
+        <v>65593892</v>
       </c>
       <c r="D195" s="0">
-        <v>8081168</v>
+        <v>6415553</v>
       </c>
       <c r="E195" s="0">
-        <v>71578010</v>
+        <v>59178339</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>LE THI HONG THUY</t>
+          <t>NGUYEN XUAN HOAI</t>
         </is>
       </c>
       <c r="G195" s="0">
-        <v>71578010</v>
+        <v>59178339</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
@@ -6982,30 +6982,30 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2980511</t>
+          <t>2765442</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>LE THI HONG THUY &amp; PHAM VAN CHUONG</t>
+          <t>NGUYEN XUAN HOAI &amp; DAU THI BICH HANG</t>
         </is>
       </c>
       <c r="C196" s="0">
-        <v>72001363</v>
+        <v>70740864</v>
       </c>
       <c r="D196" s="0">
-        <v>3600068</v>
+        <v>3537044</v>
       </c>
       <c r="E196" s="0">
-        <v>68401295</v>
+        <v>67203820</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>LE THI HONG THUY</t>
+          <t>NGUYEN XUAN HOAI</t>
         </is>
       </c>
       <c r="G196" s="0">
-        <v>68401295</v>
+        <v>67203820</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
@@ -7016,98 +7016,98 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>3002500</t>
+          <t>2784849</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NGUYEN DANG HUONG THAO &amp; NGUYEN THANH PHUONG</t>
+          <t>DANG THI THUY HANG &amp; NGUYEN KIM TAM</t>
         </is>
       </c>
       <c r="C197" s="0">
-        <v>46635267</v>
+        <v>122396760</v>
       </c>
       <c r="D197" s="0">
-        <v>6110356</v>
+        <v>6119838</v>
       </c>
       <c r="E197" s="0">
-        <v>40524911</v>
+        <v>116276922</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>NGUYEN DANG HUONG THAO</t>
+          <t>DANG THI THUY HANG</t>
         </is>
       </c>
       <c r="G197" s="0">
-        <v>40524911</v>
+        <v>116276922</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>3002814</t>
+          <t>2784849</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TRAN NHO SI TUNG &amp; DINH NGOC DUNG</t>
+          <t>DANG THI THUY HANG &amp; NGUYEN KIM TAM</t>
         </is>
       </c>
       <c r="C198" s="0">
-        <v>32253967</v>
+        <v>115040142</v>
       </c>
       <c r="D198" s="0">
-        <v>5135812</v>
+        <v>5752007</v>
       </c>
       <c r="E198" s="0">
-        <v>27118155</v>
+        <v>109288135</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>TRAN NHO SI TUNG</t>
+          <t>DANG THI THUY HANG</t>
         </is>
       </c>
       <c r="G198" s="0">
-        <v>27118155</v>
+        <v>109288135</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>January 2021</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>3034137</t>
+          <t>2784849</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NGUYEN THI SAM &amp; NGUYEN VAN CHUONG</t>
+          <t>DANG THI THUY HANG &amp; NGUYEN KIM TAM</t>
         </is>
       </c>
       <c r="C199" s="0">
-        <v>32795002</v>
+        <v>86331031</v>
       </c>
       <c r="D199" s="0">
-        <v>5199178</v>
+        <v>4316552</v>
       </c>
       <c r="E199" s="0">
-        <v>27595824</v>
+        <v>82014479</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>NGUYEN THI SAM</t>
+          <t>DANG THI THUY HANG</t>
         </is>
       </c>
       <c r="G199" s="0">
-        <v>27595824</v>
+        <v>82014479</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
@@ -7118,30 +7118,30 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>3034138</t>
+          <t>2790461</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NGUYEN THI THUY &amp; DANG SONG AN</t>
+          <t>NGUYEN NGOC TIEN &amp; PHAM CHI BINH</t>
         </is>
       </c>
       <c r="C200" s="0">
-        <v>33905164</v>
+        <v>46656591</v>
       </c>
       <c r="D200" s="0">
-        <v>5550296</v>
+        <v>6966732</v>
       </c>
       <c r="E200" s="0">
-        <v>28354868</v>
+        <v>39689859</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>NGUYEN THI THUY</t>
+          <t>NGUYEN NGOC TIEN</t>
         </is>
       </c>
       <c r="G200" s="0">
-        <v>28354868</v>
+        <v>39689859</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
@@ -7152,64 +7152,64 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>3035493</t>
+          <t>2791505</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PHAM THI KIM LY &amp; DAO DUY HIEN</t>
+          <t>HUYNH THI NGHIA &amp; DANG QUOC TRUNG</t>
         </is>
       </c>
       <c r="C201" s="0">
-        <v>86235622</v>
+        <v>48276144</v>
       </c>
       <c r="D201" s="0">
-        <v>7882976</v>
+        <v>6392816</v>
       </c>
       <c r="E201" s="0">
-        <v>78352646</v>
+        <v>41883328</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>PHAM THI KIM LY</t>
+          <t>HUYNH THI NGHIA</t>
         </is>
       </c>
       <c r="G201" s="0">
-        <v>78352646</v>
+        <v>41883328</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>3035493</t>
+          <t>2806845</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PHAM THI KIM LY &amp; DAO DUY HIEN</t>
+          <t>NGUYEN NGOC TUYEN &amp; HUYNH PHU HAI</t>
         </is>
       </c>
       <c r="C202" s="0">
-        <v>83396804</v>
+        <v>32577670</v>
       </c>
       <c r="D202" s="0">
-        <v>4169840</v>
+        <v>5213358</v>
       </c>
       <c r="E202" s="0">
-        <v>79226964</v>
+        <v>27364312</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>PHAM THI KIM LY</t>
+          <t>NGUYEN NGOC TUYEN</t>
         </is>
       </c>
       <c r="G202" s="0">
-        <v>79226964</v>
+        <v>27364312</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
@@ -7220,30 +7220,30 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>3038155</t>
+          <t>2858068</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NGUYEN THU HANG &amp; TRINH TIEN THANH</t>
+          <t>HOANG NGOC VIET &amp; TRAN THINH QUYEN</t>
         </is>
       </c>
       <c r="C203" s="0">
-        <v>54239553</v>
+        <v>63718319</v>
       </c>
       <c r="D203" s="0">
-        <v>6216995</v>
+        <v>7783876</v>
       </c>
       <c r="E203" s="0">
-        <v>48022558</v>
+        <v>55934443</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>NGUYEN THU HANG</t>
+          <t>TRAN THINH QUYEN</t>
         </is>
       </c>
       <c r="G203" s="0">
-        <v>48022558</v>
+        <v>55934443</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
@@ -7254,64 +7254,64 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>3079417</t>
+          <t>2910200</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DINH VAN MUOI &amp; PHAM THI THAM</t>
+          <t>NGUYEN THI MY TIEN &amp; VO DUC DUY</t>
         </is>
       </c>
       <c r="C204" s="0">
-        <v>37905901</v>
+        <v>58480620</v>
       </c>
       <c r="D204" s="0">
-        <v>5146845</v>
+        <v>6078860</v>
       </c>
       <c r="E204" s="0">
-        <v>32759056</v>
+        <v>52401760</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>PHAM THI THAM</t>
+          <t>NGUYEN THI MY TIEN</t>
         </is>
       </c>
       <c r="G204" s="0">
-        <v>32759056</v>
+        <v>52401760</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>3090178</t>
+          <t>2910200</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>LA VAN TRONG &amp; HO THI NGOC LUYEN</t>
+          <t>NGUYEN THI MY TIEN &amp; VO DUC DUY</t>
         </is>
       </c>
       <c r="C205" s="0">
-        <v>43560638</v>
+        <v>52341170</v>
       </c>
       <c r="D205" s="0">
-        <v>6473735</v>
+        <v>2617058</v>
       </c>
       <c r="E205" s="0">
-        <v>37086903</v>
+        <v>49724112</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>LA VAN TRONG</t>
+          <t>NGUYEN THI MY TIEN</t>
         </is>
       </c>
       <c r="G205" s="0">
-        <v>37086903</v>
+        <v>49724112</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
@@ -7322,98 +7322,98 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>3128001</t>
+          <t>2962765</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NGUYEN QUOC NGHI &amp; LUU THI DUNG</t>
+          <t>MA NGOC THANG &amp; NGUYEN THI HOE</t>
         </is>
       </c>
       <c r="C206" s="0">
-        <v>70755903</v>
+        <v>36387840</v>
       </c>
       <c r="D206" s="0">
-        <v>6157328</v>
+        <v>5263470</v>
       </c>
       <c r="E206" s="0">
-        <v>64598575</v>
+        <v>31124370</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>NGUYEN QUOC NGHI</t>
+          <t>NGUYEN THI HOE</t>
         </is>
       </c>
       <c r="G206" s="0">
-        <v>64598575</v>
+        <v>31124370</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>3128001</t>
+          <t>2969673</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NGUYEN QUOC NGHI &amp; LUU THI DUNG</t>
+          <t>LAI THI THU XUAN &amp; NGUYEN MINH CHAU</t>
         </is>
       </c>
       <c r="C207" s="0">
-        <v>22377769</v>
+        <v>55320511</v>
       </c>
       <c r="D207" s="0">
-        <v>1118889</v>
+        <v>5308805</v>
       </c>
       <c r="E207" s="0">
-        <v>21258880</v>
+        <v>50011706</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>NGUYEN QUOC NGHI</t>
+          <t>LAI THI THU XUAN</t>
         </is>
       </c>
       <c r="G207" s="0">
-        <v>21258880</v>
+        <v>50011706</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>3154660</t>
+          <t>2969673</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>VO DINH UT &amp; TRAN THI KIM</t>
+          <t>LAI THI THU XUAN &amp; NGUYEN MINH CHAU</t>
         </is>
       </c>
       <c r="C208" s="0">
-        <v>49378006</v>
+        <v>40675765</v>
       </c>
       <c r="D208" s="0">
-        <v>7429234</v>
+        <v>2033788</v>
       </c>
       <c r="E208" s="0">
-        <v>41948772</v>
+        <v>38641977</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>VO DINH UT</t>
+          <t>LAI THI THU XUAN</t>
         </is>
       </c>
       <c r="G208" s="0">
-        <v>41948772</v>
+        <v>38641977</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
@@ -7424,132 +7424,132 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>3164969</t>
+          <t>2978686</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRAN THI BICH VAN &amp; LUONG CONG TAM</t>
+          <t>DOAN TIEN DUNG &amp; NGUYEN THI THU HANG</t>
         </is>
       </c>
       <c r="C209" s="0">
-        <v>37675127</v>
+        <v>66362377</v>
       </c>
       <c r="D209" s="0">
-        <v>5220237</v>
+        <v>6370014</v>
       </c>
       <c r="E209" s="0">
-        <v>32454890</v>
+        <v>59992363</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>TRAN THI BICH VAN</t>
+          <t>DOAN TIEN DUNG</t>
         </is>
       </c>
       <c r="G209" s="0">
-        <v>32454890</v>
+        <v>59992363</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>3169734</t>
+          <t>2978686</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PHAM THI BE THUONG &amp; TRAN PHUONG BAO</t>
+          <t>DOAN TIEN DUNG &amp; NGUYEN THI THU HANG</t>
         </is>
       </c>
       <c r="C210" s="0">
-        <v>51794447</v>
+        <v>62883493</v>
       </c>
       <c r="D210" s="0">
-        <v>5222365</v>
+        <v>3144175</v>
       </c>
       <c r="E210" s="0">
-        <v>46572082</v>
+        <v>59739318</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>TRAN PHUONG BAO</t>
+          <t>DOAN TIEN DUNG</t>
         </is>
       </c>
       <c r="G210" s="0">
-        <v>46572082</v>
+        <v>59739318</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>3169734</t>
+          <t>2980511</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>PHAM THI BE THUONG &amp; TRAN PHUONG BAO</t>
+          <t>LE THI HONG THUY &amp; PHAM VAN CHUONG</t>
         </is>
       </c>
       <c r="C211" s="0">
-        <v>51350980</v>
+        <v>79659178</v>
       </c>
       <c r="D211" s="0">
-        <v>2567549</v>
+        <v>8081168</v>
       </c>
       <c r="E211" s="0">
-        <v>48783431</v>
+        <v>71578010</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>PHAM THI BE THUONG</t>
+          <t>LE THI HONG THUY</t>
         </is>
       </c>
       <c r="G211" s="0">
-        <v>48783431</v>
+        <v>71578010</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>3179262</t>
+          <t>2980511</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>PHAN THI HANH &amp; NGUYEN TRUONG GIANG</t>
+          <t>LE THI HONG THUY &amp; PHAM VAN CHUONG</t>
         </is>
       </c>
       <c r="C212" s="0">
-        <v>37919771</v>
+        <v>72001363</v>
       </c>
       <c r="D212" s="0">
-        <v>5458916</v>
+        <v>3600068</v>
       </c>
       <c r="E212" s="0">
-        <v>32460855</v>
+        <v>68401295</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>PHAN THI HANH</t>
+          <t>LE THI HONG THUY</t>
         </is>
       </c>
       <c r="G212" s="0">
-        <v>32460855</v>
+        <v>68401295</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
@@ -7560,30 +7560,30 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>3204210</t>
+          <t>3002500</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>VU XUAN HOANG &amp; LE THI THUY TIEN</t>
+          <t>NGUYEN DANG HUONG THAO &amp; NGUYEN THANH PHUONG</t>
         </is>
       </c>
       <c r="C213" s="0">
-        <v>35764697</v>
+        <v>46635267</v>
       </c>
       <c r="D213" s="0">
-        <v>5516625</v>
+        <v>6110356</v>
       </c>
       <c r="E213" s="0">
-        <v>30248072</v>
+        <v>40524911</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>VU XUAN HOANG</t>
+          <t>NGUYEN DANG HUONG THAO</t>
         </is>
       </c>
       <c r="G213" s="0">
-        <v>30248072</v>
+        <v>40524911</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
@@ -7594,64 +7594,64 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>3230113</t>
+          <t>3002814</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NGUYEN THI MAI &amp; NGUYEN VAN LONG</t>
+          <t>TRAN NHO SI TUNG &amp; DINH NGOC DUNG</t>
         </is>
       </c>
       <c r="C214" s="0">
-        <v>51927939</v>
+        <v>32253967</v>
       </c>
       <c r="D214" s="0">
-        <v>5057810</v>
+        <v>5135812</v>
       </c>
       <c r="E214" s="0">
-        <v>46870129</v>
+        <v>27118155</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>NGUYEN THI MAI</t>
+          <t>TRAN NHO SI TUNG</t>
         </is>
       </c>
       <c r="G214" s="0">
-        <v>46870129</v>
+        <v>27118155</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>3230113</t>
+          <t>3034137</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NGUYEN THI MAI &amp; NGUYEN VAN LONG</t>
+          <t>NGUYEN THI SAM &amp; NGUYEN VAN CHUONG</t>
         </is>
       </c>
       <c r="C215" s="0">
-        <v>7274074</v>
+        <v>32795002</v>
       </c>
       <c r="D215" s="0">
-        <v>363703</v>
+        <v>5199178</v>
       </c>
       <c r="E215" s="0">
-        <v>6910371</v>
+        <v>27595824</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>NGUYEN THI MAI</t>
+          <t>NGUYEN THI SAM</t>
         </is>
       </c>
       <c r="G215" s="0">
-        <v>6910371</v>
+        <v>27595824</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
@@ -7662,30 +7662,30 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>3234674</t>
+          <t>3034138</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>VO NGOC LOI &amp; NGUYEN THI HONG</t>
+          <t>NGUYEN THI THUY &amp; DANG SONG AN</t>
         </is>
       </c>
       <c r="C216" s="0">
-        <v>41759838</v>
+        <v>33905164</v>
       </c>
       <c r="D216" s="0">
-        <v>6976015</v>
+        <v>5550296</v>
       </c>
       <c r="E216" s="0">
-        <v>34783823</v>
+        <v>28354868</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>VO NGOC LOI</t>
+          <t>NGUYEN THI THUY</t>
         </is>
       </c>
       <c r="G216" s="0">
-        <v>34783823</v>
+        <v>28354868</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
@@ -7696,64 +7696,64 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>3284018</t>
+          <t>3035493</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NGUYEN THI THUY LINH &amp; LE VAN UT</t>
+          <t>PHAM THI KIM LY &amp; DAO DUY HIEN</t>
         </is>
       </c>
       <c r="C217" s="0">
-        <v>39585711</v>
+        <v>86235622</v>
       </c>
       <c r="D217" s="0">
-        <v>6337733</v>
+        <v>7882976</v>
       </c>
       <c r="E217" s="0">
-        <v>33247978</v>
+        <v>78352646</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>NGUYEN THI THUY LINH</t>
+          <t>PHAM THI KIM LY</t>
         </is>
       </c>
       <c r="G217" s="0">
-        <v>33247978</v>
+        <v>78352646</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>3297167</t>
+          <t>3035493</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>PHAN VAN CHIEN &amp; LE THI CHIN</t>
+          <t>PHAM THI KIM LY &amp; DAO DUY HIEN</t>
         </is>
       </c>
       <c r="C218" s="0">
-        <v>31856624</v>
+        <v>83396804</v>
       </c>
       <c r="D218" s="0">
-        <v>5148361</v>
+        <v>4169840</v>
       </c>
       <c r="E218" s="0">
-        <v>26708263</v>
+        <v>79226964</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>LE THI CHIN</t>
+          <t>PHAM THI KIM LY</t>
         </is>
       </c>
       <c r="G218" s="0">
-        <v>26708263</v>
+        <v>79226964</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
@@ -7764,30 +7764,30 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>3318156</t>
+          <t>3038155</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>DINH VAN NAM &amp; DO THI HANG</t>
+          <t>NGUYEN THU HANG &amp; TRINH TIEN THANH</t>
         </is>
       </c>
       <c r="C219" s="0">
-        <v>32886022</v>
+        <v>54239553</v>
       </c>
       <c r="D219" s="0">
-        <v>5053270</v>
+        <v>6216995</v>
       </c>
       <c r="E219" s="0">
-        <v>27832752</v>
+        <v>48022558</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>DINH VAN NAM</t>
+          <t>NGUYEN THU HANG</t>
         </is>
       </c>
       <c r="G219" s="0">
-        <v>27832752</v>
+        <v>48022558</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
@@ -7798,30 +7798,30 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>3336027</t>
+          <t>3079417</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRAN THI GIAU &amp; LE THANH DE</t>
+          <t>DINH VAN MUOI &amp; PHAM THI THAM</t>
         </is>
       </c>
       <c r="C220" s="0">
-        <v>27168536</v>
+        <v>37905901</v>
       </c>
       <c r="D220" s="0">
-        <v>5369289</v>
+        <v>5146845</v>
       </c>
       <c r="E220" s="0">
-        <v>21799247</v>
+        <v>32759056</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>TRAN THI GIAU</t>
+          <t>PHAM THI THAM</t>
         </is>
       </c>
       <c r="G220" s="0">
-        <v>21799247</v>
+        <v>32759056</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
@@ -7832,98 +7832,98 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>3357997</t>
+          <t>3090178</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PHAN DINH KIEN &amp; VU THIEN LINH</t>
+          <t>LA VAN TRONG &amp; HO THI NGOC LUYEN</t>
         </is>
       </c>
       <c r="C221" s="0">
-        <v>59592012</v>
+        <v>43560638</v>
       </c>
       <c r="D221" s="0">
-        <v>5555618</v>
+        <v>6473735</v>
       </c>
       <c r="E221" s="0">
-        <v>54036394</v>
+        <v>37086903</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>PHAN DINH KIEN</t>
+          <t>LA VAN TRONG</t>
         </is>
       </c>
       <c r="G221" s="0">
-        <v>54036394</v>
+        <v>37086903</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>3357997</t>
+          <t>3128001</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PHAN DINH KIEN &amp; VU THIEN LINH</t>
+          <t>NGUYEN QUOC NGHI &amp; LUU THI DUNG</t>
         </is>
       </c>
       <c r="C222" s="0">
-        <v>56917283</v>
+        <v>70755903</v>
       </c>
       <c r="D222" s="0">
-        <v>2845864</v>
+        <v>6157328</v>
       </c>
       <c r="E222" s="0">
-        <v>54071419</v>
+        <v>64598575</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>PHAN DINH KIEN</t>
+          <t>NGUYEN QUOC NGHI</t>
         </is>
       </c>
       <c r="G222" s="0">
-        <v>54071419</v>
+        <v>64598575</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>3382324</t>
+          <t>3128001</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DAO THI TUYET ANH &amp; HO THANH TRI</t>
+          <t>NGUYEN QUOC NGHI &amp; LUU THI DUNG</t>
         </is>
       </c>
       <c r="C223" s="0">
-        <v>53857079</v>
+        <v>22377769</v>
       </c>
       <c r="D223" s="0">
-        <v>7475856</v>
+        <v>1118889</v>
       </c>
       <c r="E223" s="0">
-        <v>46381223</v>
+        <v>21258880</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>HO THANH TRI</t>
+          <t>NGUYEN QUOC NGHI</t>
         </is>
       </c>
       <c r="G223" s="0">
-        <v>46381223</v>
+        <v>21258880</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
@@ -7934,30 +7934,30 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>3405157</t>
+          <t>3154660</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>LE YEN OANH &amp; NGUYEN KIEM CHAU</t>
+          <t>VO DINH UT &amp; TRAN THI KIM</t>
         </is>
       </c>
       <c r="C224" s="0">
-        <v>45690418</v>
+        <v>49378006</v>
       </c>
       <c r="D224" s="0">
-        <v>6222602</v>
+        <v>7429234</v>
       </c>
       <c r="E224" s="0">
-        <v>39467816</v>
+        <v>41948772</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>LE YEN OANH</t>
+          <t>VO DINH UT</t>
         </is>
       </c>
       <c r="G224" s="0">
-        <v>39467816</v>
+        <v>41948772</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
@@ -7968,98 +7968,98 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>3423982</t>
+          <t>3164969</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRINH HO ANH THI &amp; PHAM KHANH DIEP</t>
+          <t>TRAN THI BICH VAN &amp; LUONG CONG TAM</t>
         </is>
       </c>
       <c r="C225" s="0">
-        <v>87395391</v>
+        <v>37675127</v>
       </c>
       <c r="D225" s="0">
-        <v>7799681</v>
+        <v>5220237</v>
       </c>
       <c r="E225" s="0">
-        <v>79595710</v>
+        <v>32454890</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>PHAM KHANH DIEP</t>
+          <t>TRAN THI BICH VAN</t>
         </is>
       </c>
       <c r="G225" s="0">
-        <v>79595710</v>
+        <v>32454890</v>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>3423982</t>
+          <t>3169734</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRINH HO ANH THI &amp; PHAM KHANH DIEP</t>
+          <t>PHAM THI BE THUONG &amp; TRAN PHUONG BAO</t>
         </is>
       </c>
       <c r="C226" s="0">
-        <v>72424398</v>
+        <v>51794447</v>
       </c>
       <c r="D226" s="0">
-        <v>3621220</v>
+        <v>5222365</v>
       </c>
       <c r="E226" s="0">
-        <v>68803178</v>
+        <v>46572082</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>PHAM KHANH DIEP</t>
+          <t>TRAN PHUONG BAO</t>
         </is>
       </c>
       <c r="G226" s="0">
-        <v>68803178</v>
+        <v>46572082</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>3437686</t>
+          <t>3169734</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NGUYEN KHAC TUNG &amp; VU THI TUYET MAI</t>
+          <t>PHAM THI BE THUONG &amp; TRAN PHUONG BAO</t>
         </is>
       </c>
       <c r="C227" s="0">
-        <v>32335537</v>
+        <v>51350980</v>
       </c>
       <c r="D227" s="0">
-        <v>5550979</v>
+        <v>2567549</v>
       </c>
       <c r="E227" s="0">
-        <v>26784558</v>
+        <v>48783431</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>NGUYEN KHAC TUNG</t>
+          <t>PHAM THI BE THUONG</t>
         </is>
       </c>
       <c r="G227" s="0">
-        <v>26784558</v>
+        <v>48783431</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
@@ -8070,30 +8070,30 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>3451515</t>
+          <t>3179262</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PHUNG VAN DUC &amp; NGUYEN THI HONG LAM</t>
+          <t>PHAN THI HANH &amp; NGUYEN TRUONG GIANG</t>
         </is>
       </c>
       <c r="C228" s="0">
-        <v>42562679</v>
+        <v>37919771</v>
       </c>
       <c r="D228" s="0">
-        <v>5841136</v>
+        <v>5458916</v>
       </c>
       <c r="E228" s="0">
-        <v>36721543</v>
+        <v>32460855</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>NGUYEN THI HONG LAM</t>
+          <t>PHAN THI HANH</t>
         </is>
       </c>
       <c r="G228" s="0">
-        <v>36721543</v>
+        <v>32460855</v>
       </c>
       <c r="H228" t="inlineStr">
         <is>
@@ -8104,30 +8104,30 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>3504506</t>
+          <t>3204210</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DANG NGOC YEN MY &amp; TRAN QUOC DAT</t>
+          <t>VU XUAN HOANG &amp; LE THI THUY TIEN</t>
         </is>
       </c>
       <c r="C229" s="0">
-        <v>35118948</v>
+        <v>35764697</v>
       </c>
       <c r="D229" s="0">
-        <v>6435978</v>
+        <v>5516625</v>
       </c>
       <c r="E229" s="0">
-        <v>28682970</v>
+        <v>30248072</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>DANG NGOC YEN MY</t>
+          <t>VU XUAN HOANG</t>
         </is>
       </c>
       <c r="G229" s="0">
-        <v>28682970</v>
+        <v>30248072</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
@@ -8138,30 +8138,30 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>3567321</t>
+          <t>3230113</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NGUYEN QUOC NGOC &amp; NGUYEN THI TUAN NGAN</t>
+          <t>NGUYEN THI MAI &amp; NGUYEN VAN LONG</t>
         </is>
       </c>
       <c r="C230" s="0">
-        <v>62181205</v>
+        <v>51927939</v>
       </c>
       <c r="D230" s="0">
-        <v>6531635</v>
+        <v>5057810</v>
       </c>
       <c r="E230" s="0">
-        <v>55649570</v>
+        <v>46870129</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>NGUYEN QUOC NGOC</t>
+          <t>NGUYEN THI MAI</t>
         </is>
       </c>
       <c r="G230" s="0">
-        <v>55649570</v>
+        <v>46870129</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
@@ -8172,30 +8172,30 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>3567321</t>
+          <t>3230113</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NGUYEN QUOC NGOC &amp; NGUYEN THI TUAN NGAN</t>
+          <t>NGUYEN THI MAI &amp; NGUYEN VAN LONG</t>
         </is>
       </c>
       <c r="C231" s="0">
-        <v>41863486</v>
+        <v>7274074</v>
       </c>
       <c r="D231" s="0">
-        <v>2093174</v>
+        <v>363703</v>
       </c>
       <c r="E231" s="0">
-        <v>39770312</v>
+        <v>6910371</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>NGUYEN QUOC NGOC</t>
+          <t>NGUYEN THI MAI</t>
         </is>
       </c>
       <c r="G231" s="0">
-        <v>39770312</v>
+        <v>6910371</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
@@ -8206,30 +8206,30 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>3594708</t>
+          <t>3234674</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>LE BICH HIEN &amp; NGUYEN VAN CHUNG</t>
+          <t>VO NGOC LOI &amp; NGUYEN THI HONG</t>
         </is>
       </c>
       <c r="C232" s="0">
-        <v>29836157</v>
+        <v>41759838</v>
       </c>
       <c r="D232" s="0">
-        <v>5604470</v>
+        <v>6976015</v>
       </c>
       <c r="E232" s="0">
-        <v>24231687</v>
+        <v>34783823</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>LE BICH HIEN</t>
+          <t>VO NGOC LOI</t>
         </is>
       </c>
       <c r="G232" s="0">
-        <v>24231687</v>
+        <v>34783823</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
@@ -8240,30 +8240,30 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>3634499</t>
+          <t>3284018</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NGUYEN VAN THO &amp; DO THI NGOC TRIEU</t>
+          <t>NGUYEN THI THUY LINH &amp; LE VAN UT</t>
         </is>
       </c>
       <c r="C233" s="0">
-        <v>57478135</v>
+        <v>39585711</v>
       </c>
       <c r="D233" s="0">
-        <v>5003115</v>
+        <v>6337733</v>
       </c>
       <c r="E233" s="0">
-        <v>52475020</v>
+        <v>33247978</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>DO THI NGOC TRIEU</t>
+          <t>NGUYEN THI THUY LINH</t>
         </is>
       </c>
       <c r="G233" s="0">
-        <v>52475020</v>
+        <v>33247978</v>
       </c>
       <c r="H233" t="inlineStr">
         <is>
@@ -8274,30 +8274,30 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>3636991</t>
+          <t>3297167</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NGUYEN THI DAO &amp; NGUYEN MINH CHAU</t>
+          <t>PHAN VAN CHIEN &amp; LE THI CHIN</t>
         </is>
       </c>
       <c r="C234" s="0">
-        <v>35389679</v>
+        <v>31856624</v>
       </c>
       <c r="D234" s="0">
-        <v>5030889</v>
+        <v>5148361</v>
       </c>
       <c r="E234" s="0">
-        <v>30358790</v>
+        <v>26708263</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>NGUYEN THI DAO</t>
+          <t>LE THI CHIN</t>
         </is>
       </c>
       <c r="G234" s="0">
-        <v>30358790</v>
+        <v>26708263</v>
       </c>
       <c r="H234" t="inlineStr">
         <is>
@@ -8308,30 +8308,30 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>3707578</t>
+          <t>3318156</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NGUYEN THANH HOAN &amp; VO THI KIEU</t>
+          <t>DINH VAN NAM &amp; DO THI HANG</t>
         </is>
       </c>
       <c r="C235" s="0">
-        <v>38388687</v>
+        <v>32886022</v>
       </c>
       <c r="D235" s="0">
-        <v>5243601</v>
+        <v>5053270</v>
       </c>
       <c r="E235" s="0">
-        <v>33145086</v>
+        <v>27832752</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>VO THI KIEU</t>
+          <t>DINH VAN NAM</t>
         </is>
       </c>
       <c r="G235" s="0">
-        <v>33145086</v>
+        <v>27832752</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
@@ -8342,30 +8342,30 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>3731610</t>
+          <t>3336027</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>LE THI HANH &amp; VO THAI BINH</t>
+          <t>TRAN THI GIAU &amp; LE THANH DE</t>
         </is>
       </c>
       <c r="C236" s="0">
-        <v>46095844</v>
+        <v>27168536</v>
       </c>
       <c r="D236" s="0">
-        <v>5095172</v>
+        <v>5369289</v>
       </c>
       <c r="E236" s="0">
-        <v>41000672</v>
+        <v>21799247</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>LE THI HANH</t>
+          <t>TRAN THI GIAU</t>
         </is>
       </c>
       <c r="G236" s="0">
-        <v>41000672</v>
+        <v>21799247</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
@@ -8376,64 +8376,64 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>3746030</t>
+          <t>3357997</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NGUYEN HUY NGHIA &amp; NGUYEN THI TUONG VY</t>
+          <t>PHAN DINH KIEN &amp; VU THIEN LINH</t>
         </is>
       </c>
       <c r="C237" s="0">
-        <v>35533865</v>
+        <v>59592012</v>
       </c>
       <c r="D237" s="0">
-        <v>5868477</v>
+        <v>5555618</v>
       </c>
       <c r="E237" s="0">
-        <v>29665388</v>
+        <v>54036394</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>NGUYEN THI TUONG VY</t>
+          <t>PHAN DINH KIEN</t>
         </is>
       </c>
       <c r="G237" s="0">
-        <v>29665388</v>
+        <v>54036394</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>3786321</t>
+          <t>3357997</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRINH HUU PHUOC &amp; DAO THI BICH DIEU</t>
+          <t>PHAN DINH KIEN &amp; VU THIEN LINH</t>
         </is>
       </c>
       <c r="C238" s="0">
-        <v>37447486</v>
+        <v>56917283</v>
       </c>
       <c r="D238" s="0">
-        <v>5524100</v>
+        <v>2845864</v>
       </c>
       <c r="E238" s="0">
-        <v>31923386</v>
+        <v>54071419</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>TRINH HUU PHUOC</t>
+          <t>PHAN DINH KIEN</t>
         </is>
       </c>
       <c r="G238" s="0">
-        <v>31923386</v>
+        <v>54071419</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
@@ -8444,30 +8444,30 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>3793356</t>
+          <t>3382324</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NGUYEN THI HANG &amp; CAO DUC VINH</t>
+          <t>DAO THI TUYET ANH &amp; HO THANH TRI</t>
         </is>
       </c>
       <c r="C239" s="0">
-        <v>42975109</v>
+        <v>53857079</v>
       </c>
       <c r="D239" s="0">
-        <v>6024964</v>
+        <v>7475856</v>
       </c>
       <c r="E239" s="0">
-        <v>36950145</v>
+        <v>46381223</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>NGUYEN THI HANG</t>
+          <t>HO THANH TRI</t>
         </is>
       </c>
       <c r="G239" s="0">
-        <v>36950145</v>
+        <v>46381223</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
@@ -8478,100 +8478,644 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>3842470</t>
+          <t>3405157</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NGUYEN VU NGOC MAI &amp; VU HOANG TAM</t>
+          <t>LE YEN OANH &amp; NGUYEN KIEM CHAU</t>
         </is>
       </c>
       <c r="C240" s="0">
-        <v>63122843</v>
+        <v>45690418</v>
       </c>
       <c r="D240" s="0">
-        <v>5952417</v>
+        <v>6222602</v>
       </c>
       <c r="E240" s="0">
-        <v>57170426</v>
+        <v>39467816</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>NGUYEN VU NGOC MAI</t>
+          <t>LE YEN OANH</t>
         </is>
       </c>
       <c r="G240" s="0">
-        <v>57170426</v>
+        <v>39467816</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>February 2021</t>
+          <t>March 2021</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>3842470</t>
+          <t>3423982</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NGUYEN VU NGOC MAI &amp; VU HOANG TAM</t>
+          <t>TRINH HO ANH THI &amp; PHAM KHANH DIEP</t>
         </is>
       </c>
       <c r="C241" s="0">
-        <v>49958227</v>
+        <v>87395391</v>
       </c>
       <c r="D241" s="0">
-        <v>2497911</v>
+        <v>7799681</v>
       </c>
       <c r="E241" s="0">
-        <v>47460316</v>
+        <v>79595710</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>NGUYEN VU NGOC MAI</t>
+          <t>PHAM KHANH DIEP</t>
         </is>
       </c>
       <c r="G241" s="0">
-        <v>47460316</v>
+        <v>79595710</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>March 2021</t>
+          <t>February 2021</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
+          <t>3423982</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>TRINH HO ANH THI &amp; PHAM KHANH DIEP</t>
+        </is>
+      </c>
+      <c r="C242" s="0">
+        <v>72424398</v>
+      </c>
+      <c r="D242" s="0">
+        <v>3621220</v>
+      </c>
+      <c r="E242" s="0">
+        <v>68803178</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>PHAM KHANH DIEP</t>
+        </is>
+      </c>
+      <c r="G242" s="0">
+        <v>68803178</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>3437686</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>NGUYEN KHAC TUNG &amp; VU THI TUYET MAI</t>
+        </is>
+      </c>
+      <c r="C243" s="0">
+        <v>32335537</v>
+      </c>
+      <c r="D243" s="0">
+        <v>5550979</v>
+      </c>
+      <c r="E243" s="0">
+        <v>26784558</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>NGUYEN KHAC TUNG</t>
+        </is>
+      </c>
+      <c r="G243" s="0">
+        <v>26784558</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>3451515</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>PHUNG VAN DUC &amp; NGUYEN THI HONG LAM</t>
+        </is>
+      </c>
+      <c r="C244" s="0">
+        <v>42562679</v>
+      </c>
+      <c r="D244" s="0">
+        <v>5841136</v>
+      </c>
+      <c r="E244" s="0">
+        <v>36721543</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>NGUYEN THI HONG LAM</t>
+        </is>
+      </c>
+      <c r="G244" s="0">
+        <v>36721543</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>3504506</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>DANG NGOC YEN MY &amp; TRAN QUOC DAT</t>
+        </is>
+      </c>
+      <c r="C245" s="0">
+        <v>35118948</v>
+      </c>
+      <c r="D245" s="0">
+        <v>6435978</v>
+      </c>
+      <c r="E245" s="0">
+        <v>28682970</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>DANG NGOC YEN MY</t>
+        </is>
+      </c>
+      <c r="G245" s="0">
+        <v>28682970</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>3567321</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>NGUYEN QUOC NGOC &amp; NGUYEN THI TUAN NGAN</t>
+        </is>
+      </c>
+      <c r="C246" s="0">
+        <v>62181205</v>
+      </c>
+      <c r="D246" s="0">
+        <v>6531635</v>
+      </c>
+      <c r="E246" s="0">
+        <v>55649570</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>NGUYEN QUOC NGOC</t>
+        </is>
+      </c>
+      <c r="G246" s="0">
+        <v>55649570</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>February 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>3567321</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>NGUYEN QUOC NGOC &amp; NGUYEN THI TUAN NGAN</t>
+        </is>
+      </c>
+      <c r="C247" s="0">
+        <v>41863486</v>
+      </c>
+      <c r="D247" s="0">
+        <v>2093174</v>
+      </c>
+      <c r="E247" s="0">
+        <v>39770312</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>NGUYEN QUOC NGOC</t>
+        </is>
+      </c>
+      <c r="G247" s="0">
+        <v>39770312</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>3594708</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>LE BICH HIEN &amp; NGUYEN VAN CHUNG</t>
+        </is>
+      </c>
+      <c r="C248" s="0">
+        <v>29836157</v>
+      </c>
+      <c r="D248" s="0">
+        <v>5604470</v>
+      </c>
+      <c r="E248" s="0">
+        <v>24231687</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>LE BICH HIEN</t>
+        </is>
+      </c>
+      <c r="G248" s="0">
+        <v>24231687</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>3634499</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>NGUYEN VAN THO &amp; DO THI NGOC TRIEU</t>
+        </is>
+      </c>
+      <c r="C249" s="0">
+        <v>57478135</v>
+      </c>
+      <c r="D249" s="0">
+        <v>5003115</v>
+      </c>
+      <c r="E249" s="0">
+        <v>52475020</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>DO THI NGOC TRIEU</t>
+        </is>
+      </c>
+      <c r="G249" s="0">
+        <v>52475020</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>3636991</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>NGUYEN THI DAO &amp; NGUYEN MINH CHAU</t>
+        </is>
+      </c>
+      <c r="C250" s="0">
+        <v>35389679</v>
+      </c>
+      <c r="D250" s="0">
+        <v>5030889</v>
+      </c>
+      <c r="E250" s="0">
+        <v>30358790</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>NGUYEN THI DAO</t>
+        </is>
+      </c>
+      <c r="G250" s="0">
+        <v>30358790</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>3707578</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>NGUYEN THANH HOAN &amp; VO THI KIEU</t>
+        </is>
+      </c>
+      <c r="C251" s="0">
+        <v>38388687</v>
+      </c>
+      <c r="D251" s="0">
+        <v>5243601</v>
+      </c>
+      <c r="E251" s="0">
+        <v>33145086</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>VO THI KIEU</t>
+        </is>
+      </c>
+      <c r="G251" s="0">
+        <v>33145086</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>3731610</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>LE THI HANH &amp; VO THAI BINH</t>
+        </is>
+      </c>
+      <c r="C252" s="0">
+        <v>46095844</v>
+      </c>
+      <c r="D252" s="0">
+        <v>5095172</v>
+      </c>
+      <c r="E252" s="0">
+        <v>41000672</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>LE THI HANH</t>
+        </is>
+      </c>
+      <c r="G252" s="0">
+        <v>41000672</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>3746030</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>NGUYEN HUY NGHIA &amp; NGUYEN THI TUONG VY</t>
+        </is>
+      </c>
+      <c r="C253" s="0">
+        <v>35533865</v>
+      </c>
+      <c r="D253" s="0">
+        <v>5868477</v>
+      </c>
+      <c r="E253" s="0">
+        <v>29665388</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>NGUYEN THI TUONG VY</t>
+        </is>
+      </c>
+      <c r="G253" s="0">
+        <v>29665388</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>3786321</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>TRINH HUU PHUOC &amp; DAO THI BICH DIEU</t>
+        </is>
+      </c>
+      <c r="C254" s="0">
+        <v>37447486</v>
+      </c>
+      <c r="D254" s="0">
+        <v>5524100</v>
+      </c>
+      <c r="E254" s="0">
+        <v>31923386</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>TRINH HUU PHUOC</t>
+        </is>
+      </c>
+      <c r="G254" s="0">
+        <v>31923386</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>3793356</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>NGUYEN THI HANG &amp; CAO DUC VINH</t>
+        </is>
+      </c>
+      <c r="C255" s="0">
+        <v>42975109</v>
+      </c>
+      <c r="D255" s="0">
+        <v>6024964</v>
+      </c>
+      <c r="E255" s="0">
+        <v>36950145</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>NGUYEN THI HANG</t>
+        </is>
+      </c>
+      <c r="G255" s="0">
+        <v>36950145</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>3842470</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>NGUYEN VU NGOC MAI &amp; VU HOANG TAM</t>
+        </is>
+      </c>
+      <c r="C256" s="0">
+        <v>63122843</v>
+      </c>
+      <c r="D256" s="0">
+        <v>5952417</v>
+      </c>
+      <c r="E256" s="0">
+        <v>57170426</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>NGUYEN VU NGOC MAI</t>
+        </is>
+      </c>
+      <c r="G256" s="0">
+        <v>57170426</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>February 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>3842470</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>NGUYEN VU NGOC MAI &amp; VU HOANG TAM</t>
+        </is>
+      </c>
+      <c r="C257" s="0">
+        <v>49958227</v>
+      </c>
+      <c r="D257" s="0">
+        <v>2497911</v>
+      </c>
+      <c r="E257" s="0">
+        <v>47460316</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>NGUYEN VU NGOC MAI</t>
+        </is>
+      </c>
+      <c r="G257" s="0">
+        <v>47460316</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
           <t>5018602</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>TRAN THI QUYNH TRANG &amp; PHAM QUANG HA</t>
         </is>
       </c>
-      <c r="C242" s="0">
+      <c r="C258" s="0">
         <v>37558032</v>
       </c>
-      <c r="D242" s="0">
+      <c r="D258" s="0">
         <v>5334394</v>
       </c>
-      <c r="E242" s="0">
+      <c r="E258" s="0">
         <v>32223638</v>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>TRAN THI QUYNH TRANG</t>
         </is>
       </c>
-      <c r="G242" s="0">
+      <c r="G258" s="0">
         <v>32223638</v>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="H258" t="inlineStr">
         <is>
           <t>March 2021</t>
         </is>
